--- a/materialy/najmy/restaurace-p1.xlsx
+++ b/materialy/najmy/restaurace-p1.xlsx
@@ -12,6 +12,7 @@
   </sheets>
   <definedNames>
     <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">List1!$A$1:$T$42</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">List1!$A$1:$T$42</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="249">
   <si>
     <t xml:space="preserve">SPRAVCE</t>
   </si>
@@ -484,13 +485,10 @@
     <t xml:space="preserve">Http://zastupitelstvo.praha.eu/ina2014/cessmldetail.aspx?id=127445 (je potřeba si vyžádat)</t>
   </si>
   <si>
-    <t xml:space="preserve">Reno-Gastro v.o.s.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">il Gusto</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.12.2017</t>
+    <t xml:space="preserve">Iskro s.r.o.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">původně: Reno-Gastro v.o.s., cena 517 053,34 Kč, m2/rok 3 821</t>
   </si>
   <si>
     <t xml:space="preserve">http://zastupitelstvo.praha.eu/ina2014/cessmldetail.aspx?id=135395</t>
@@ -700,7 +698,7 @@
     <t xml:space="preserve">café Franz Kafka</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.tripadvisor.cz/Restaurant_Review-g274707-d4277565-Reviews-Cafe_Franz_Kafka-Prague_Bohemia.html</t>
+    <t xml:space="preserve">už vypovězeno kvůli rekonstrukci</t>
   </si>
   <si>
     <t xml:space="preserve">http://zastupitelstvo.praha.eu/ina2014/cessmldetail.aspx?id=229089</t>
@@ -779,18 +777,18 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="#,##0.00\ [$Kč-405];[RED]\-#,##0.00\ [$Kč-405]"/>
-    <numFmt numFmtId="166" formatCode="#,##0"/>
-    <numFmt numFmtId="167" formatCode="MM/DD/YYYY"/>
-    <numFmt numFmtId="168" formatCode="#,##0.00"/>
+    <numFmt numFmtId="165" formatCode="#,##0"/>
+    <numFmt numFmtId="166" formatCode="MM/DD/YYYY"/>
+    <numFmt numFmtId="167" formatCode="#,##0.00"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -808,21 +806,11 @@
       <family val="0"/>
     </font>
     <font>
-      <u val="single"/>
-      <sz val="10"/>
-      <name val="FreeSans"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="FreeSans"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -830,20 +818,36 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FFFF3333"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor rgb="FFFF3333"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -855,7 +859,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="24">
+  <cellStyleXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -879,45 +883,49 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="90" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="16">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -925,39 +933,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -966,23 +950,19 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="10">
+  <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Výsledek" xfId="20" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Výsledek2" xfId="21" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Nadpis" xfId="22" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Nadpis1" xfId="23" builtinId="53" customBuiltin="true"/>
   </cellStyles>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
       <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFFF3333"/>
+      <rgbColor rgb="FFFF0000"/>
       <rgbColor rgb="FF00FF00"/>
       <rgbColor rgb="FF0000FF"/>
       <rgbColor rgb="FFFFFF00"/>
@@ -1025,7 +1005,7 @@
       <rgbColor rgb="FF99CC00"/>
       <rgbColor rgb="FFFFCC00"/>
       <rgbColor rgb="FFFF9900"/>
-      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FFFF3333"/>
       <rgbColor rgb="FF666699"/>
       <rgbColor rgb="FF969696"/>
       <rgbColor rgb="FF003366"/>
@@ -1050,12 +1030,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:IX43"/>
+  <dimension ref="A1:AMJ43"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="J9" activeCellId="0" sqref="J9"/>
+      <selection pane="bottomLeft" activeCell="J23" activeCellId="0" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1144,52 +1124,52 @@
       <c r="D2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="7" t="n">
+      <c r="F2" s="6" t="n">
         <v>771</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="I2" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="J2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="K2" s="1" t="s">
         <v>26</v>
       </c>
       <c r="L2" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="M2" s="9" t="n">
+      <c r="M2" s="7" t="n">
         <f aca="false">N2*O2</f>
         <v>151800</v>
       </c>
-      <c r="N2" s="10" t="n">
+      <c r="N2" s="8" t="n">
         <v>60720</v>
       </c>
-      <c r="O2" s="8" t="n">
+      <c r="O2" s="1" t="n">
         <v>2.5</v>
       </c>
-      <c r="P2" s="11" t="s">
+      <c r="P2" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="Q2" s="11" t="s">
+      <c r="Q2" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="R2" s="7"/>
-      <c r="S2" s="7"/>
+      <c r="R2" s="6"/>
+      <c r="S2" s="6"/>
       <c r="T2" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="U2" s="7"/>
+      <c r="U2" s="6"/>
     </row>
     <row r="3" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="6" t="s">
@@ -1202,52 +1182,52 @@
       <c r="D3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="7" t="n">
+      <c r="F3" s="6" t="n">
         <v>771</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="H3" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="I3" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="J3" s="8" t="s">
+      <c r="J3" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="K3" s="8" t="s">
+      <c r="K3" s="1" t="s">
         <v>26</v>
       </c>
       <c r="L3" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="M3" s="9" t="n">
+      <c r="M3" s="7" t="n">
         <f aca="false">N3*O3</f>
         <v>814205</v>
       </c>
-      <c r="N3" s="10" t="n">
+      <c r="N3" s="8" t="n">
         <v>30100</v>
       </c>
-      <c r="O3" s="8" t="n">
+      <c r="O3" s="1" t="n">
         <v>27.05</v>
       </c>
-      <c r="P3" s="11" t="s">
+      <c r="P3" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="Q3" s="11" t="s">
+      <c r="Q3" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="R3" s="7"/>
-      <c r="S3" s="7"/>
+      <c r="R3" s="6"/>
+      <c r="S3" s="6"/>
       <c r="T3" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="U3" s="7"/>
+      <c r="U3" s="6"/>
     </row>
     <row r="4" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="6" t="s">
@@ -1260,50 +1240,50 @@
       <c r="D4" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="F4" s="7" t="n">
+      <c r="F4" s="6" t="n">
         <v>504</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="G4" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="H4" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="I4" s="7" t="s">
+      <c r="I4" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="J4" s="8" t="s">
+      <c r="J4" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="K4" s="8" t="s">
+      <c r="K4" s="1" t="s">
         <v>38</v>
       </c>
       <c r="L4" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="M4" s="9" t="n">
+      <c r="M4" s="7" t="n">
         <f aca="false">N4*O4</f>
         <v>4390190.308</v>
       </c>
-      <c r="N4" s="10" t="n">
+      <c r="N4" s="8" t="n">
         <v>20767.22</v>
       </c>
-      <c r="O4" s="8" t="n">
+      <c r="O4" s="1" t="n">
         <v>211.4</v>
       </c>
-      <c r="P4" s="11" t="s">
+      <c r="P4" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="Q4" s="11"/>
-      <c r="R4" s="7"/>
-      <c r="S4" s="7"/>
+      <c r="Q4" s="9"/>
+      <c r="R4" s="6"/>
+      <c r="S4" s="6"/>
       <c r="T4" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="U4" s="7"/>
+      <c r="U4" s="6"/>
     </row>
     <row r="5" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="6" t="s">
@@ -1316,108 +1296,107 @@
       <c r="D5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="7" t="n">
+      <c r="F5" s="6" t="n">
         <v>771</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="G5" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="H5" s="7" t="s">
+      <c r="H5" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="I5" s="7" t="s">
+      <c r="I5" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="J5" s="8" t="s">
+      <c r="J5" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="K5" s="8" t="s">
+      <c r="K5" s="1" t="s">
         <v>26</v>
       </c>
       <c r="L5" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="M5" s="9" t="n">
+      <c r="M5" s="7" t="n">
         <f aca="false">N5*O5</f>
         <v>1436916</v>
       </c>
-      <c r="N5" s="10" t="n">
+      <c r="N5" s="8" t="n">
         <v>18300</v>
       </c>
-      <c r="O5" s="8" t="n">
+      <c r="O5" s="1" t="n">
         <v>78.52</v>
       </c>
-      <c r="P5" s="11" t="s">
+      <c r="P5" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="Q5" s="11" t="s">
+      <c r="Q5" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="R5" s="7" t="s">
+      <c r="R5" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="S5" s="7"/>
+      <c r="S5" s="6"/>
       <c r="T5" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="U5" s="7"/>
+      <c r="U5" s="6"/>
     </row>
     <row r="6" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B6" s="7" t="n">
+      <c r="B6" s="6" t="n">
         <v>6</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="F6" s="7" t="n">
+      <c r="F6" s="6" t="n">
         <v>416</v>
       </c>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7" t="s">
+      <c r="G6" s="6"/>
+      <c r="H6" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="I6" s="7" t="s">
+      <c r="I6" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8" t="s">
+      <c r="K6" s="1" t="s">
         <v>48</v>
       </c>
       <c r="L6" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="M6" s="9" t="n">
+      <c r="M6" s="7" t="n">
         <f aca="false">N6*O6</f>
         <v>1679997.012</v>
       </c>
-      <c r="N6" s="10" t="n">
+      <c r="N6" s="8" t="n">
         <v>17301.72</v>
       </c>
-      <c r="O6" s="8" t="n">
+      <c r="O6" s="1" t="n">
         <v>97.1</v>
       </c>
-      <c r="P6" s="11" t="n">
+      <c r="P6" s="9" t="n">
         <v>42735</v>
       </c>
-      <c r="Q6" s="11"/>
-      <c r="R6" s="7" t="s">
+      <c r="Q6" s="9"/>
+      <c r="R6" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="S6" s="7"/>
+      <c r="S6" s="6"/>
       <c r="T6" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="U6" s="7"/>
+      <c r="U6" s="6"/>
     </row>
     <row r="7" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="6" t="s">
@@ -1432,52 +1411,52 @@
       <c r="D7" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="F7" s="7" t="n">
+      <c r="F7" s="6" t="n">
         <v>404</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="G7" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="H7" s="7" t="s">
+      <c r="H7" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="I7" s="7" t="s">
+      <c r="I7" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="J7" s="8" t="s">
+      <c r="J7" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="K7" s="8" t="s">
+      <c r="K7" s="1" t="s">
         <v>55</v>
       </c>
       <c r="L7" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="M7" s="9" t="n">
+      <c r="M7" s="7" t="n">
         <f aca="false">N7*O7</f>
         <v>2561653.91</v>
       </c>
-      <c r="N7" s="10" t="n">
+      <c r="N7" s="8" t="n">
         <v>13348.9</v>
       </c>
-      <c r="O7" s="8" t="n">
+      <c r="O7" s="1" t="n">
         <v>191.9</v>
       </c>
-      <c r="P7" s="11" t="s">
+      <c r="P7" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="Q7" s="11"/>
-      <c r="R7" s="7" t="s">
+      <c r="Q7" s="9"/>
+      <c r="R7" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="S7" s="7"/>
+      <c r="S7" s="6"/>
       <c r="T7" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="U7" s="7"/>
+      <c r="U7" s="6"/>
     </row>
     <row r="8" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="6" t="s">
@@ -1486,166 +1465,166 @@
       <c r="B8" s="6" t="n">
         <v>39</v>
       </c>
-      <c r="C8" s="7" t="n">
+      <c r="C8" s="6" t="n">
         <v>2</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="F8" s="7" t="n">
+      <c r="F8" s="6" t="n">
         <v>154</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="G8" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="H8" s="7" t="s">
+      <c r="H8" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="I8" s="7" t="s">
+      <c r="I8" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="J8" s="8" t="s">
+      <c r="J8" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="K8" s="8" t="s">
+      <c r="K8" s="1" t="s">
         <v>63</v>
       </c>
       <c r="L8" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="M8" s="9" t="n">
+      <c r="M8" s="7" t="n">
         <f aca="false">N8*O8</f>
         <v>2395530</v>
       </c>
-      <c r="N8" s="10" t="n">
+      <c r="N8" s="8" t="n">
         <v>12380</v>
       </c>
-      <c r="O8" s="8" t="n">
+      <c r="O8" s="1" t="n">
         <v>193.5</v>
       </c>
-      <c r="P8" s="11" t="s">
+      <c r="P8" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="Q8" s="11"/>
-      <c r="R8" s="7"/>
-      <c r="S8" s="7"/>
+      <c r="Q8" s="9"/>
+      <c r="R8" s="6"/>
+      <c r="S8" s="6"/>
       <c r="T8" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="U8" s="7"/>
+      <c r="U8" s="6"/>
     </row>
     <row r="9" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="B9" s="12" t="n">
+      <c r="B9" s="10" t="n">
         <v>38</v>
       </c>
-      <c r="C9" s="13" t="n">
+      <c r="C9" s="0" t="n">
         <v>10</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="E9" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="F9" s="7" t="n">
+      <c r="F9" s="6" t="n">
         <v>365</v>
       </c>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7" t="s">
+      <c r="G9" s="6"/>
+      <c r="H9" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="I9" s="7" t="s">
+      <c r="I9" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="J9" s="8" t="s">
+      <c r="J9" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="K9" s="8" t="s">
+      <c r="K9" s="1" t="s">
         <v>68</v>
       </c>
       <c r="L9" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="M9" s="9" t="n">
+      <c r="M9" s="7" t="n">
         <f aca="false">N9*O9</f>
         <v>1200000</v>
       </c>
-      <c r="N9" s="10" t="n">
+      <c r="N9" s="8" t="n">
         <v>12043.3560818948</v>
       </c>
-      <c r="O9" s="8" t="n">
+      <c r="O9" s="1" t="n">
         <v>99.64</v>
       </c>
-      <c r="P9" s="11" t="s">
+      <c r="P9" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="Q9" s="11"/>
-      <c r="R9" s="7"/>
-      <c r="S9" s="7"/>
+      <c r="Q9" s="9"/>
+      <c r="R9" s="6"/>
+      <c r="S9" s="6"/>
       <c r="T9" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="U9" s="7"/>
+      <c r="U9" s="6"/>
     </row>
     <row r="10" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B10" s="7" t="n">
+      <c r="B10" s="6" t="n">
         <v>4</v>
       </c>
-      <c r="C10" s="7"/>
+      <c r="C10" s="6"/>
       <c r="D10" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="E10" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="F10" s="7" t="n">
+      <c r="F10" s="6" t="n">
         <v>416</v>
       </c>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7" t="s">
+      <c r="G10" s="6"/>
+      <c r="H10" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="I10" s="7" t="s">
+      <c r="I10" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="J10" s="8" t="s">
+      <c r="J10" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="K10" s="8" t="s">
+      <c r="K10" s="1" t="s">
         <v>72</v>
       </c>
       <c r="L10" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="M10" s="9" t="n">
+      <c r="M10" s="7" t="n">
         <f aca="false">N10*O10</f>
         <v>5619422.52</v>
       </c>
-      <c r="N10" s="10" t="n">
+      <c r="N10" s="8" t="n">
         <v>11780.76</v>
       </c>
-      <c r="O10" s="8" t="n">
+      <c r="O10" s="1" t="n">
         <v>477</v>
       </c>
-      <c r="P10" s="11" t="n">
+      <c r="P10" s="9" t="n">
         <v>43281</v>
       </c>
-      <c r="Q10" s="11"/>
-      <c r="R10" s="7"/>
-      <c r="S10" s="7"/>
+      <c r="Q10" s="9"/>
+      <c r="R10" s="6"/>
+      <c r="S10" s="6"/>
       <c r="T10" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="U10" s="7"/>
+      <c r="U10" s="6"/>
     </row>
     <row r="11" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="6" t="s">
@@ -1658,104 +1637,104 @@
       <c r="D11" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="E11" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="F11" s="7" t="n">
+      <c r="F11" s="6" t="n">
         <v>18</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="G11" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="H11" s="7" t="s">
+      <c r="H11" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="I11" s="7" t="s">
+      <c r="I11" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="J11" s="8" t="s">
+      <c r="J11" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="K11" s="8" t="s">
+      <c r="K11" s="1" t="s">
         <v>79</v>
       </c>
       <c r="L11" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="M11" s="9" t="n">
+      <c r="M11" s="7" t="n">
         <f aca="false">N11*O11</f>
         <v>3606720.25</v>
       </c>
-      <c r="N11" s="10" t="n">
+      <c r="N11" s="8" t="n">
         <v>11459</v>
       </c>
-      <c r="O11" s="8" t="n">
+      <c r="O11" s="1" t="n">
         <v>314.75</v>
       </c>
-      <c r="P11" s="11" t="s">
+      <c r="P11" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="Q11" s="11"/>
-      <c r="R11" s="7"/>
-      <c r="S11" s="7"/>
+      <c r="Q11" s="9"/>
+      <c r="R11" s="6"/>
+      <c r="S11" s="6"/>
       <c r="T11" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="U11" s="7"/>
+      <c r="U11" s="6"/>
     </row>
     <row r="12" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B12" s="7" t="n">
+      <c r="B12" s="6" t="n">
         <v>117</v>
       </c>
-      <c r="C12" s="7"/>
+      <c r="C12" s="6"/>
       <c r="D12" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="E12" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="F12" s="7" t="n">
+      <c r="F12" s="6" t="n">
         <v>738</v>
       </c>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7" t="s">
+      <c r="G12" s="6"/>
+      <c r="H12" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="I12" s="7" t="s">
+      <c r="I12" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="J12" s="8" t="s">
+      <c r="J12" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="K12" s="8" t="s">
+      <c r="K12" s="1" t="s">
         <v>85</v>
       </c>
       <c r="L12" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="M12" s="9" t="n">
+      <c r="M12" s="7" t="n">
         <f aca="false">N12*O12</f>
         <v>551880</v>
       </c>
-      <c r="N12" s="10" t="n">
+      <c r="N12" s="8" t="n">
         <v>11217.0731707317</v>
       </c>
-      <c r="O12" s="8" t="n">
+      <c r="O12" s="1" t="n">
         <v>49.2</v>
       </c>
-      <c r="P12" s="11" t="n">
+      <c r="P12" s="9" t="n">
         <v>43524</v>
       </c>
-      <c r="Q12" s="11"/>
-      <c r="R12" s="7"/>
-      <c r="S12" s="7"/>
+      <c r="Q12" s="9"/>
+      <c r="R12" s="6"/>
+      <c r="S12" s="6"/>
       <c r="T12" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="U12" s="7"/>
+      <c r="U12" s="6"/>
     </row>
     <row r="13" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="6" t="s">
@@ -1768,54 +1747,54 @@
       <c r="D13" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="E13" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="F13" s="7" t="n">
+      <c r="F13" s="6" t="n">
         <v>373</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="G13" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="H13" s="7" t="s">
+      <c r="H13" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="I13" s="7" t="s">
+      <c r="I13" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="J13" s="8" t="s">
+      <c r="J13" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="K13" s="8" t="s">
+      <c r="K13" s="1" t="s">
         <v>91</v>
       </c>
       <c r="L13" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="M13" s="9" t="n">
+      <c r="M13" s="7" t="n">
         <f aca="false">N13*O13</f>
         <v>1176624</v>
       </c>
-      <c r="N13" s="10" t="n">
+      <c r="N13" s="8" t="n">
         <v>7200</v>
       </c>
-      <c r="O13" s="8" t="n">
+      <c r="O13" s="1" t="n">
         <v>163.42</v>
       </c>
-      <c r="P13" s="11" t="s">
+      <c r="P13" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="Q13" s="11" t="s">
+      <c r="Q13" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="R13" s="7" t="s">
+      <c r="R13" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="S13" s="7"/>
+      <c r="S13" s="6"/>
       <c r="T13" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="U13" s="7"/>
+      <c r="U13" s="6"/>
     </row>
     <row r="14" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="6" t="s">
@@ -1824,54 +1803,54 @@
       <c r="B14" s="6" t="n">
         <v>280</v>
       </c>
-      <c r="C14" s="7"/>
+      <c r="C14" s="6"/>
       <c r="D14" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="E14" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="F14" s="7" t="n">
+      <c r="F14" s="6" t="n">
         <v>415</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="G14" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="H14" s="7" t="s">
+      <c r="H14" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="I14" s="7" t="s">
+      <c r="I14" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="J14" s="8" t="s">
+      <c r="J14" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="K14" s="8" t="s">
+      <c r="K14" s="1" t="s">
         <v>99</v>
       </c>
       <c r="L14" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="M14" s="9" t="n">
+      <c r="M14" s="7" t="n">
         <f aca="false">N14*O14</f>
         <v>2906400.2493</v>
       </c>
-      <c r="N14" s="10" t="n">
+      <c r="N14" s="8" t="n">
         <v>6974.97</v>
       </c>
-      <c r="O14" s="8" t="n">
+      <c r="O14" s="1" t="n">
         <v>416.69</v>
       </c>
-      <c r="P14" s="11" t="s">
+      <c r="P14" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="Q14" s="11"/>
-      <c r="R14" s="7"/>
-      <c r="S14" s="7"/>
+      <c r="Q14" s="9"/>
+      <c r="R14" s="6"/>
+      <c r="S14" s="6"/>
       <c r="T14" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="U14" s="7"/>
+      <c r="U14" s="6"/>
     </row>
     <row r="15" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="6" t="s">
@@ -1884,104 +1863,104 @@
       <c r="D15" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="E15" s="7" t="s">
+      <c r="E15" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="F15" s="7" t="n">
+      <c r="F15" s="6" t="n">
         <v>385</v>
       </c>
-      <c r="G15" s="7" t="s">
+      <c r="G15" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="H15" s="7" t="s">
+      <c r="H15" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="I15" s="7" t="s">
+      <c r="I15" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="J15" s="8" t="s">
+      <c r="J15" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="K15" s="8" t="s">
+      <c r="K15" s="1" t="s">
         <v>106</v>
       </c>
       <c r="L15" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="M15" s="9" t="n">
+      <c r="M15" s="7" t="n">
         <f aca="false">N15*O15</f>
         <v>1186307.4</v>
       </c>
-      <c r="N15" s="10" t="n">
+      <c r="N15" s="8" t="n">
         <v>5867</v>
       </c>
-      <c r="O15" s="8" t="n">
+      <c r="O15" s="1" t="n">
         <v>202.2</v>
       </c>
-      <c r="P15" s="11" t="s">
+      <c r="P15" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="Q15" s="11"/>
-      <c r="R15" s="7"/>
-      <c r="S15" s="7"/>
+      <c r="Q15" s="9"/>
+      <c r="R15" s="6"/>
+      <c r="S15" s="6"/>
       <c r="T15" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="U15" s="7"/>
+      <c r="U15" s="6"/>
     </row>
-    <row r="16" s="14" customFormat="true" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="12" t="s">
+    <row r="16" s="11" customFormat="true" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="B16" s="12" t="n">
+      <c r="B16" s="10" t="n">
         <v>12</v>
       </c>
-      <c r="C16" s="13"/>
+      <c r="C16" s="0"/>
       <c r="D16" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E16" s="7" t="s">
+      <c r="E16" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="F16" s="7" t="n">
+      <c r="F16" s="6" t="n">
         <v>416</v>
       </c>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7" t="s">
+      <c r="G16" s="6"/>
+      <c r="H16" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="I16" s="7" t="s">
+      <c r="I16" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="J16" s="8" t="s">
+      <c r="J16" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="K16" s="8" t="s">
+      <c r="K16" s="1" t="s">
         <v>111</v>
       </c>
       <c r="L16" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="M16" s="9" t="n">
+      <c r="M16" s="7" t="n">
         <f aca="false">N16*O16</f>
         <v>659998.248</v>
       </c>
-      <c r="N16" s="10" t="n">
+      <c r="N16" s="8" t="n">
         <v>5856.24</v>
       </c>
-      <c r="O16" s="8" t="n">
+      <c r="O16" s="1" t="n">
         <v>112.7</v>
       </c>
-      <c r="P16" s="11" t="n">
+      <c r="P16" s="9" t="n">
         <v>43465</v>
       </c>
-      <c r="Q16" s="11"/>
-      <c r="R16" s="7"/>
-      <c r="S16" s="7"/>
+      <c r="Q16" s="9"/>
+      <c r="R16" s="6"/>
+      <c r="S16" s="6"/>
       <c r="T16" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="U16" s="7"/>
+      <c r="U16" s="6"/>
     </row>
     <row r="17" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="6" t="s">
@@ -1994,52 +1973,52 @@
       <c r="D17" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="E17" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="F17" s="7" t="n">
+      <c r="F17" s="6" t="n">
         <v>549</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="G17" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="H17" s="7" t="s">
+      <c r="H17" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="I17" s="7" t="s">
+      <c r="I17" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="J17" s="8" t="s">
+      <c r="J17" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="K17" s="8" t="s">
+      <c r="K17" s="1" t="s">
         <v>116</v>
       </c>
       <c r="L17" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="M17" s="9" t="n">
+      <c r="M17" s="7" t="n">
         <f aca="false">N17*O17</f>
         <v>2337860.1246</v>
       </c>
-      <c r="N17" s="10" t="n">
+      <c r="N17" s="8" t="n">
         <v>5656.98</v>
       </c>
-      <c r="O17" s="8" t="n">
+      <c r="O17" s="1" t="n">
         <v>413.27</v>
       </c>
-      <c r="P17" s="11" t="s">
+      <c r="P17" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="Q17" s="11"/>
-      <c r="R17" s="7" t="s">
+      <c r="Q17" s="9"/>
+      <c r="R17" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="S17" s="7"/>
+      <c r="S17" s="6"/>
       <c r="T17" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="U17" s="7"/>
+      <c r="U17" s="6"/>
     </row>
     <row r="18" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="6" t="s">
@@ -2048,58 +2027,58 @@
       <c r="B18" s="6" t="n">
         <v>54</v>
       </c>
-      <c r="C18" s="7"/>
+      <c r="C18" s="6"/>
       <c r="D18" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E18" s="7" t="s">
+      <c r="E18" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="F18" s="7" t="n">
+      <c r="F18" s="6" t="n">
         <v>504</v>
       </c>
-      <c r="G18" s="7" t="s">
+      <c r="G18" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="H18" s="7" t="s">
+      <c r="H18" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="I18" s="7" t="s">
+      <c r="I18" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="J18" s="15" t="s">
+      <c r="J18" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="K18" s="8" t="s">
+      <c r="K18" s="1" t="s">
         <v>121</v>
       </c>
       <c r="L18" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="M18" s="9" t="n">
+      <c r="M18" s="7" t="n">
         <f aca="false">N18*O18</f>
         <v>4930283.0865</v>
       </c>
-      <c r="N18" s="10" t="n">
+      <c r="N18" s="8" t="n">
         <v>5344.77</v>
       </c>
-      <c r="O18" s="8" t="n">
+      <c r="O18" s="1" t="n">
         <v>922.45</v>
       </c>
-      <c r="P18" s="11" t="n">
+      <c r="P18" s="9" t="n">
         <v>44881</v>
       </c>
-      <c r="Q18" s="13"/>
-      <c r="R18" s="7" t="s">
+      <c r="Q18" s="0"/>
+      <c r="R18" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="S18" s="7"/>
+      <c r="S18" s="6"/>
       <c r="T18" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="U18" s="7"/>
+      <c r="U18" s="6"/>
     </row>
-    <row r="19" s="14" customFormat="true" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" s="11" customFormat="true" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="6" t="s">
         <v>19</v>
       </c>
@@ -2110,104 +2089,104 @@
       <c r="D19" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="E19" s="7" t="s">
+      <c r="E19" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="F19" s="7" t="n">
+      <c r="F19" s="6" t="n">
         <v>609</v>
       </c>
-      <c r="G19" s="7" t="s">
+      <c r="G19" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="H19" s="7" t="s">
+      <c r="H19" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="I19" s="7" t="s">
+      <c r="I19" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="J19" s="8" t="s">
+      <c r="J19" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="K19" s="8" t="s">
+      <c r="K19" s="1" t="s">
         <v>128</v>
       </c>
       <c r="L19" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="M19" s="9" t="n">
+      <c r="M19" s="7" t="n">
         <f aca="false">N19*O19</f>
         <v>1546460.16</v>
       </c>
-      <c r="N19" s="10" t="n">
+      <c r="N19" s="8" t="n">
         <v>5087.04</v>
       </c>
-      <c r="O19" s="8" t="n">
+      <c r="O19" s="1" t="n">
         <v>304</v>
       </c>
-      <c r="P19" s="11" t="s">
+      <c r="P19" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="Q19" s="11"/>
-      <c r="R19" s="7"/>
-      <c r="S19" s="7"/>
+      <c r="Q19" s="9"/>
+      <c r="R19" s="6"/>
+      <c r="S19" s="6"/>
       <c r="T19" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="U19" s="7"/>
+      <c r="U19" s="6"/>
     </row>
     <row r="20" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="7" t="s">
+      <c r="A20" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B20" s="7" t="n">
+      <c r="B20" s="6" t="n">
         <v>16</v>
       </c>
       <c r="C20" s="6"/>
       <c r="D20" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E20" s="7" t="s">
+      <c r="E20" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="F20" s="7" t="n">
+      <c r="F20" s="6" t="n">
         <v>416</v>
       </c>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7" t="s">
+      <c r="G20" s="6"/>
+      <c r="H20" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="I20" s="7" t="s">
+      <c r="I20" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="J20" s="8" t="s">
+      <c r="J20" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="K20" s="8" t="s">
+      <c r="K20" s="1" t="s">
         <v>130</v>
       </c>
       <c r="L20" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="M20" s="9" t="n">
+      <c r="M20" s="7" t="n">
         <f aca="false">N20*O20</f>
         <v>1319997</v>
       </c>
-      <c r="N20" s="10" t="n">
+      <c r="N20" s="8" t="n">
         <v>5019</v>
       </c>
-      <c r="O20" s="8" t="n">
+      <c r="O20" s="1" t="n">
         <v>263</v>
       </c>
-      <c r="P20" s="11" t="n">
+      <c r="P20" s="9" t="n">
         <v>43830</v>
       </c>
-      <c r="Q20" s="11"/>
-      <c r="R20" s="7"/>
-      <c r="S20" s="7"/>
+      <c r="Q20" s="9"/>
+      <c r="R20" s="6"/>
+      <c r="S20" s="6"/>
       <c r="T20" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="U20" s="7"/>
+      <c r="U20" s="6"/>
     </row>
     <row r="21" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="6" t="s">
@@ -2216,56 +2195,56 @@
       <c r="B21" s="6" t="n">
         <v>124</v>
       </c>
-      <c r="C21" s="7" t="n">
+      <c r="C21" s="6" t="n">
         <v>4</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="E21" s="7" t="s">
+      <c r="E21" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="F21" s="7" t="n">
+      <c r="F21" s="6" t="n">
         <v>892</v>
       </c>
-      <c r="G21" s="7" t="s">
+      <c r="G21" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="H21" s="7" t="s">
+      <c r="H21" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="I21" s="7" t="s">
+      <c r="I21" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="J21" s="8" t="s">
+      <c r="J21" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="K21" s="8" t="s">
+      <c r="K21" s="1" t="s">
         <v>135</v>
       </c>
       <c r="L21" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="M21" s="9" t="n">
+      <c r="M21" s="7" t="n">
         <f aca="false">N21*O21</f>
         <v>231350</v>
       </c>
-      <c r="N21" s="10" t="n">
+      <c r="N21" s="8" t="n">
         <v>5000</v>
       </c>
-      <c r="O21" s="8" t="n">
+      <c r="O21" s="1" t="n">
         <v>46.27</v>
       </c>
-      <c r="P21" s="11" t="s">
+      <c r="P21" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="Q21" s="11"/>
-      <c r="R21" s="7"/>
-      <c r="S21" s="7"/>
+      <c r="Q21" s="9"/>
+      <c r="R21" s="6"/>
+      <c r="S21" s="6"/>
       <c r="T21" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="U21" s="7"/>
+      <c r="U21" s="6"/>
     </row>
     <row r="22" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="6" t="s">
@@ -2278,50 +2257,50 @@
       <c r="D22" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="E22" s="7" t="s">
+      <c r="E22" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="F22" s="7" t="n">
+      <c r="F22" s="6" t="n">
         <v>1025</v>
       </c>
-      <c r="G22" s="7" t="s">
+      <c r="G22" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="H22" s="7" t="s">
+      <c r="H22" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="I22" s="7" t="s">
+      <c r="I22" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="J22" s="8" t="s">
+      <c r="J22" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="K22" s="8" t="s">
+      <c r="K22" s="1" t="s">
         <v>140</v>
       </c>
       <c r="L22" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="M22" s="9" t="n">
+      <c r="M22" s="7" t="n">
         <f aca="false">N22*O22</f>
         <v>997920</v>
       </c>
-      <c r="N22" s="10" t="n">
+      <c r="N22" s="8" t="n">
         <v>4500</v>
       </c>
-      <c r="O22" s="8" t="n">
+      <c r="O22" s="1" t="n">
         <v>221.76</v>
       </c>
-      <c r="P22" s="11" t="s">
+      <c r="P22" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="Q22" s="11"/>
-      <c r="R22" s="7"/>
-      <c r="S22" s="7"/>
+      <c r="Q22" s="9"/>
+      <c r="R22" s="6"/>
+      <c r="S22" s="6"/>
       <c r="T22" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="U22" s="7"/>
+      <c r="U22" s="6"/>
     </row>
     <row r="23" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="6" t="s">
@@ -2334,50 +2313,50 @@
       <c r="D23" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="E23" s="7" t="s">
+      <c r="E23" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="F23" s="7" t="n">
+      <c r="F23" s="6" t="n">
         <v>380</v>
       </c>
-      <c r="G23" s="7" t="s">
+      <c r="G23" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="H23" s="7" t="s">
+      <c r="H23" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="I23" s="7" t="s">
+      <c r="I23" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="J23" s="8" t="s">
+      <c r="J23" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="K23" s="8" t="s">
+      <c r="K23" s="1" t="s">
         <v>145</v>
       </c>
       <c r="L23" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="M23" s="9" t="n">
+      <c r="M23" s="7" t="n">
         <f aca="false">N23*O23</f>
         <v>841349.3</v>
       </c>
-      <c r="N23" s="10" t="n">
+      <c r="N23" s="8" t="n">
         <v>4486</v>
       </c>
-      <c r="O23" s="8" t="n">
+      <c r="O23" s="1" t="n">
         <v>187.55</v>
       </c>
-      <c r="P23" s="11" t="s">
+      <c r="P23" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="Q23" s="11"/>
-      <c r="R23" s="7"/>
-      <c r="S23" s="7"/>
+      <c r="Q23" s="9"/>
+      <c r="R23" s="6"/>
+      <c r="S23" s="6"/>
       <c r="T23" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="U23" s="7"/>
+      <c r="U23" s="6"/>
     </row>
     <row r="24" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="6" t="s">
@@ -2390,106 +2369,103 @@
       <c r="D24" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="E24" s="7" t="s">
+      <c r="E24" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="F24" s="7" t="n">
+      <c r="F24" s="6" t="n">
         <v>1441</v>
       </c>
-      <c r="G24" s="7" t="s">
+      <c r="G24" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="H24" s="7" t="s">
+      <c r="H24" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="I24" s="7" t="s">
+      <c r="I24" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="J24" s="8" t="s">
+      <c r="J24" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="K24" s="8" t="s">
+      <c r="K24" s="1" t="s">
         <v>151</v>
       </c>
       <c r="L24" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="M24" s="9" t="n">
+      <c r="M24" s="7" t="n">
         <f aca="false">N24*O24</f>
         <v>1222350.2336</v>
       </c>
-      <c r="N24" s="10" t="n">
+      <c r="N24" s="8" t="n">
         <v>4257.28</v>
       </c>
-      <c r="O24" s="8" t="n">
+      <c r="O24" s="1" t="n">
         <v>287.12</v>
       </c>
-      <c r="P24" s="11" t="s">
+      <c r="P24" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="Q24" s="11"/>
-      <c r="R24" s="7"/>
-      <c r="S24" s="7"/>
+      <c r="Q24" s="9"/>
+      <c r="R24" s="6"/>
+      <c r="S24" s="6"/>
       <c r="T24" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="U24" s="7"/>
+      <c r="U24" s="6"/>
     </row>
-    <row r="25" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="6" t="s">
         <v>19</v>
       </c>
       <c r="B25" s="6" t="n">
         <v>156</v>
       </c>
-      <c r="C25" s="7"/>
+      <c r="C25" s="6"/>
       <c r="D25" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="E25" s="7" t="s">
+      <c r="E25" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="F25" s="7" t="n">
+      <c r="F25" s="6" t="n">
         <v>404</v>
       </c>
-      <c r="G25" s="7" t="s">
+      <c r="G25" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="H25" s="7" t="s">
+      <c r="H25" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="I25" s="7" t="s">
+      <c r="I25" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="J25" s="8" t="s">
+      <c r="J25" s="0" t="s">
         <v>153</v>
       </c>
-      <c r="K25" s="8" t="s">
+      <c r="K25" s="0"/>
+      <c r="L25" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="M25" s="7" t="n">
+        <v>5401760</v>
+      </c>
+      <c r="N25" s="8" t="n">
+        <v>41600</v>
+      </c>
+      <c r="O25" s="0" t="n">
+        <v>135.31</v>
+      </c>
+      <c r="P25" s="0"/>
+      <c r="Q25" s="9"/>
+      <c r="R25" s="9" t="s">
         <v>154</v>
       </c>
-      <c r="L25" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="M25" s="9" t="n">
-        <f aca="false">N25*O25</f>
-        <v>517053.3375</v>
-      </c>
-      <c r="N25" s="10" t="n">
-        <v>3821.25</v>
-      </c>
-      <c r="O25" s="8" t="n">
-        <v>135.31</v>
-      </c>
-      <c r="P25" s="11" t="s">
+      <c r="S25" s="6"/>
+      <c r="T25" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="Q25" s="11"/>
-      <c r="R25" s="7"/>
-      <c r="S25" s="7"/>
-      <c r="T25" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="U25" s="7"/>
+      <c r="U25" s="6"/>
     </row>
     <row r="26" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="6" t="s">
@@ -2502,50 +2478,50 @@
       <c r="D26" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="E26" s="7" t="s">
+      <c r="E26" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="F26" s="6" t="n">
+        <v>406</v>
+      </c>
+      <c r="G26" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="F26" s="7" t="n">
-        <v>406</v>
-      </c>
-      <c r="G26" s="7" t="s">
+      <c r="H26" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="I26" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="J26" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="H26" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="I26" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="J26" s="8" t="s">
+      <c r="K26" s="1" t="s">
         <v>159</v>
-      </c>
-      <c r="K26" s="8" t="s">
-        <v>160</v>
       </c>
       <c r="L26" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="M26" s="9" t="n">
+      <c r="M26" s="7" t="n">
         <f aca="false">N26*O26</f>
         <v>1775675.88</v>
       </c>
-      <c r="N26" s="10" t="n">
+      <c r="N26" s="8" t="n">
         <v>3663</v>
       </c>
-      <c r="O26" s="8" t="n">
+      <c r="O26" s="1" t="n">
         <v>484.76</v>
       </c>
-      <c r="P26" s="11" t="s">
+      <c r="P26" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="Q26" s="11"/>
-      <c r="R26" s="7"/>
-      <c r="S26" s="7"/>
+      <c r="Q26" s="9"/>
+      <c r="R26" s="6"/>
+      <c r="S26" s="6"/>
       <c r="T26" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="U26" s="7"/>
+        <v>160</v>
+      </c>
+      <c r="U26" s="6"/>
     </row>
     <row r="27" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="6" t="s">
@@ -2558,52 +2534,52 @@
         <v>6</v>
       </c>
       <c r="D27" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="E27" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="E27" s="7" t="s">
+      <c r="F27" s="6" t="n">
+        <v>824</v>
+      </c>
+      <c r="G27" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="F27" s="7" t="n">
-        <v>824</v>
-      </c>
-      <c r="G27" s="7" t="s">
+      <c r="H27" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="I27" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J27" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="H27" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="I27" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="J27" s="8" t="s">
+      <c r="K27" s="1" t="s">
         <v>165</v>
-      </c>
-      <c r="K27" s="8" t="s">
-        <v>166</v>
       </c>
       <c r="L27" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="M27" s="9" t="n">
+      <c r="M27" s="7" t="n">
         <f aca="false">N27*O27</f>
         <v>2259993</v>
       </c>
-      <c r="N27" s="10" t="n">
+      <c r="N27" s="8" t="n">
         <v>3645.15</v>
       </c>
-      <c r="O27" s="8" t="n">
+      <c r="O27" s="1" t="n">
         <v>620</v>
       </c>
-      <c r="P27" s="11" t="s">
+      <c r="P27" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="Q27" s="11"/>
-      <c r="R27" s="7"/>
-      <c r="S27" s="7"/>
+      <c r="Q27" s="9"/>
+      <c r="R27" s="6"/>
+      <c r="S27" s="6"/>
       <c r="T27" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="U27" s="7"/>
+      <c r="U27" s="6"/>
     </row>
     <row r="28" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="6" t="s">
@@ -2616,50 +2592,50 @@
       <c r="D28" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="E28" s="7" t="s">
+      <c r="E28" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="F28" s="6" t="n">
+        <v>550</v>
+      </c>
+      <c r="G28" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="F28" s="7" t="n">
-        <v>550</v>
-      </c>
-      <c r="G28" s="7" t="s">
+      <c r="H28" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="I28" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="J28" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="H28" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="I28" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="J28" s="8" t="s">
+      <c r="K28" s="1" t="s">
         <v>169</v>
-      </c>
-      <c r="K28" s="8" t="s">
-        <v>170</v>
       </c>
       <c r="L28" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="M28" s="9" t="n">
+      <c r="M28" s="7" t="n">
         <f aca="false">N28*O28</f>
         <v>3136836.4038</v>
       </c>
-      <c r="N28" s="10" t="n">
+      <c r="N28" s="8" t="n">
         <v>3508.02</v>
       </c>
-      <c r="O28" s="8" t="n">
+      <c r="O28" s="1" t="n">
         <v>894.19</v>
       </c>
-      <c r="P28" s="11" t="s">
+      <c r="P28" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="Q28" s="11"/>
-      <c r="R28" s="7"/>
-      <c r="S28" s="7"/>
+      <c r="Q28" s="9"/>
+      <c r="R28" s="6"/>
+      <c r="S28" s="6"/>
       <c r="T28" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="U28" s="7"/>
+        <v>170</v>
+      </c>
+      <c r="U28" s="6"/>
     </row>
     <row r="29" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="6" t="s">
@@ -2668,54 +2644,54 @@
       <c r="B29" s="6" t="n">
         <v>91</v>
       </c>
-      <c r="C29" s="7"/>
+      <c r="C29" s="6"/>
       <c r="D29" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="E29" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="E29" s="7" t="s">
+      <c r="F29" s="6" t="n">
+        <v>1038</v>
+      </c>
+      <c r="G29" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="F29" s="7" t="n">
-        <v>1038</v>
-      </c>
-      <c r="G29" s="7" t="s">
+      <c r="H29" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="I29" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J29" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="H29" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="I29" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="J29" s="8" t="s">
+      <c r="K29" s="1" t="s">
         <v>175</v>
-      </c>
-      <c r="K29" s="8" t="s">
-        <v>176</v>
       </c>
       <c r="L29" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="M29" s="9" t="n">
+      <c r="M29" s="7" t="n">
         <f aca="false">N29*O29</f>
         <v>2727113.6232</v>
       </c>
-      <c r="N29" s="10" t="n">
+      <c r="N29" s="8" t="n">
         <v>3470.14</v>
       </c>
-      <c r="O29" s="8" t="n">
+      <c r="O29" s="1" t="n">
         <v>785.88</v>
       </c>
-      <c r="P29" s="11" t="s">
+      <c r="P29" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q29" s="9"/>
+      <c r="R29" s="6"/>
+      <c r="S29" s="6"/>
+      <c r="T29" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="Q29" s="11"/>
-      <c r="R29" s="7"/>
-      <c r="S29" s="7"/>
-      <c r="T29" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="U29" s="7"/>
+      <c r="U29" s="6"/>
     </row>
     <row r="30" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="6" t="s">
@@ -2726,52 +2702,52 @@
       </c>
       <c r="C30" s="6"/>
       <c r="D30" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="E30" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="E30" s="7" t="s">
+      <c r="F30" s="6" t="n">
+        <v>674</v>
+      </c>
+      <c r="G30" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="F30" s="7" t="n">
-        <v>674</v>
-      </c>
-      <c r="G30" s="7" t="s">
+      <c r="H30" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="I30" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J30" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="H30" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="I30" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="J30" s="8" t="s">
+      <c r="K30" s="1" t="s">
         <v>182</v>
-      </c>
-      <c r="K30" s="8" t="s">
-        <v>183</v>
       </c>
       <c r="L30" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="M30" s="9" t="n">
+      <c r="M30" s="7" t="n">
         <f aca="false">N30*O30</f>
         <v>615079.2901</v>
       </c>
-      <c r="N30" s="10" t="n">
+      <c r="N30" s="8" t="n">
         <v>3356.87</v>
       </c>
-      <c r="O30" s="8" t="n">
+      <c r="O30" s="1" t="n">
         <v>183.23</v>
       </c>
-      <c r="P30" s="11" t="s">
+      <c r="P30" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q30" s="9"/>
+      <c r="R30" s="6"/>
+      <c r="S30" s="6"/>
+      <c r="T30" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="Q30" s="11"/>
-      <c r="R30" s="7"/>
-      <c r="S30" s="7"/>
-      <c r="T30" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="U30" s="7"/>
+      <c r="U30" s="6"/>
     </row>
     <row r="31" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="6" t="s">
@@ -2782,52 +2758,52 @@
       </c>
       <c r="C31" s="6"/>
       <c r="D31" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="E31" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="E31" s="7" t="s">
+      <c r="F31" s="6" t="n">
+        <v>419</v>
+      </c>
+      <c r="G31" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="F31" s="7" t="n">
-        <v>419</v>
-      </c>
-      <c r="G31" s="7" t="s">
+      <c r="H31" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="I31" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="J31" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="H31" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="I31" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="J31" s="8" t="s">
+      <c r="K31" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="K31" s="8" t="s">
+      <c r="L31" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="L31" s="6" t="s">
-        <v>191</v>
-      </c>
-      <c r="M31" s="9" t="n">
+      <c r="M31" s="7" t="n">
         <f aca="false">N31*O31</f>
         <v>595260</v>
       </c>
-      <c r="N31" s="10" t="n">
+      <c r="N31" s="8" t="n">
         <v>3000</v>
       </c>
-      <c r="O31" s="8" t="n">
+      <c r="O31" s="1" t="n">
         <v>198.42</v>
       </c>
-      <c r="P31" s="11" t="s">
+      <c r="P31" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q31" s="9"/>
+      <c r="R31" s="6"/>
+      <c r="S31" s="6"/>
+      <c r="T31" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="Q31" s="11"/>
-      <c r="R31" s="7"/>
-      <c r="S31" s="7"/>
-      <c r="T31" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="U31" s="7"/>
+      <c r="U31" s="6"/>
     </row>
     <row r="32" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="6" t="s">
@@ -2840,110 +2816,110 @@
         <v>1</v>
       </c>
       <c r="D32" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="E32" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="E32" s="7" t="s">
+      <c r="F32" s="6" t="n">
+        <v>556</v>
+      </c>
+      <c r="G32" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="F32" s="7" t="n">
-        <v>556</v>
-      </c>
-      <c r="G32" s="7" t="s">
+      <c r="H32" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="I32" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="J32" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="H32" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="I32" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="J32" s="8" t="s">
+      <c r="K32" s="1" t="s">
         <v>197</v>
-      </c>
-      <c r="K32" s="8" t="s">
-        <v>198</v>
       </c>
       <c r="L32" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="M32" s="9" t="n">
+      <c r="M32" s="7" t="n">
         <f aca="false">N32*O32</f>
         <v>1866537</v>
       </c>
-      <c r="N32" s="10" t="n">
+      <c r="N32" s="8" t="n">
         <v>2700</v>
       </c>
-      <c r="O32" s="8" t="n">
+      <c r="O32" s="1" t="n">
         <v>691.31</v>
       </c>
-      <c r="P32" s="11" t="s">
+      <c r="P32" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="Q32" s="11"/>
-      <c r="R32" s="7" t="s">
+      <c r="Q32" s="9"/>
+      <c r="R32" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="S32" s="6"/>
+      <c r="T32" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="S32" s="7"/>
-      <c r="T32" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="U32" s="7"/>
+      <c r="U32" s="6"/>
     </row>
-    <row r="33" s="14" customFormat="true" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="7" t="s">
+    <row r="33" s="11" customFormat="true" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B33" s="7" t="n">
+      <c r="B33" s="6" t="n">
         <v>56</v>
       </c>
       <c r="C33" s="1"/>
       <c r="D33" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="E33" s="6" t="s">
         <v>201</v>
       </c>
-      <c r="E33" s="7" t="s">
+      <c r="F33" s="6" t="n">
+        <v>439</v>
+      </c>
+      <c r="G33" s="6"/>
+      <c r="H33" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="I33" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="J33" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="F33" s="7" t="n">
-        <v>439</v>
-      </c>
-      <c r="G33" s="7"/>
-      <c r="H33" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="I33" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="J33" s="8" t="s">
+      <c r="K33" s="1" t="s">
         <v>203</v>
-      </c>
-      <c r="K33" s="8" t="s">
-        <v>204</v>
       </c>
       <c r="L33" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="M33" s="9" t="n">
+      <c r="M33" s="7" t="n">
         <f aca="false">N33*O33</f>
         <v>1740000</v>
       </c>
-      <c r="N33" s="10" t="n">
+      <c r="N33" s="8" t="n">
         <v>2586.20689655172</v>
       </c>
-      <c r="O33" s="8" t="n">
+      <c r="O33" s="1" t="n">
         <v>672.8</v>
       </c>
-      <c r="P33" s="11" t="n">
+      <c r="P33" s="9" t="n">
         <v>43951</v>
       </c>
-      <c r="Q33" s="11"/>
-      <c r="R33" s="7"/>
-      <c r="S33" s="7"/>
+      <c r="Q33" s="9"/>
+      <c r="R33" s="6"/>
+      <c r="S33" s="6"/>
       <c r="T33" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="U33" s="7"/>
+      <c r="U33" s="6"/>
     </row>
-    <row r="34" s="14" customFormat="true" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" s="11" customFormat="true" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="6" t="s">
         <v>19</v>
       </c>
@@ -2952,54 +2928,54 @@
       </c>
       <c r="C34" s="6"/>
       <c r="D34" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="E34" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="E34" s="7" t="s">
+      <c r="F34" s="6" t="n">
+        <v>411</v>
+      </c>
+      <c r="G34" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="F34" s="7" t="n">
-        <v>411</v>
-      </c>
-      <c r="G34" s="7" t="s">
+      <c r="H34" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="I34" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="J34" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="H34" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="I34" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="J34" s="8" t="s">
+      <c r="K34" s="1" t="s">
         <v>208</v>
-      </c>
-      <c r="K34" s="8" t="s">
-        <v>209</v>
       </c>
       <c r="L34" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="M34" s="9" t="n">
+      <c r="M34" s="7" t="n">
         <f aca="false">N34*O34</f>
         <v>2762997.5799</v>
       </c>
-      <c r="N34" s="10" t="n">
+      <c r="N34" s="8" t="n">
         <v>2544.97</v>
       </c>
-      <c r="O34" s="8" t="n">
+      <c r="O34" s="1" t="n">
         <v>1085.67</v>
       </c>
-      <c r="P34" s="11" t="s">
+      <c r="P34" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="Q34" s="11"/>
-      <c r="R34" s="7" t="s">
+      <c r="Q34" s="9"/>
+      <c r="R34" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="S34" s="6"/>
+      <c r="T34" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="S34" s="7"/>
-      <c r="T34" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="U34" s="7"/>
+      <c r="U34" s="6"/>
     </row>
     <row r="35" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="6" t="s">
@@ -3014,50 +2990,50 @@
       <c r="D35" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="E35" s="7" t="s">
+      <c r="E35" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="F35" s="6" t="n">
+        <v>929</v>
+      </c>
+      <c r="G35" s="6" t="s">
         <v>212</v>
       </c>
-      <c r="F35" s="7" t="n">
-        <v>929</v>
-      </c>
-      <c r="G35" s="7" t="s">
+      <c r="H35" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="I35" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J35" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="H35" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="I35" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="J35" s="8" t="s">
+      <c r="K35" s="1" t="s">
         <v>214</v>
-      </c>
-      <c r="K35" s="8" t="s">
-        <v>215</v>
       </c>
       <c r="L35" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="M35" s="9" t="n">
+      <c r="M35" s="7" t="n">
         <f aca="false">N35*O35</f>
         <v>163590</v>
       </c>
-      <c r="N35" s="10" t="n">
+      <c r="N35" s="8" t="n">
         <v>2100</v>
       </c>
-      <c r="O35" s="8" t="n">
+      <c r="O35" s="1" t="n">
         <v>77.9</v>
       </c>
-      <c r="P35" s="11" t="s">
+      <c r="P35" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="Q35" s="11"/>
-      <c r="R35" s="7"/>
-      <c r="S35" s="7"/>
+      <c r="Q35" s="9"/>
+      <c r="R35" s="6"/>
+      <c r="S35" s="6"/>
       <c r="T35" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="U35" s="7"/>
+        <v>215</v>
+      </c>
+      <c r="U35" s="6"/>
     </row>
     <row r="36" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="6" t="s">
@@ -3070,224 +3046,224 @@
       <c r="D36" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E36" s="7" t="s">
+      <c r="E36" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="F36" s="7" t="n">
+      <c r="F36" s="6" t="n">
         <v>504</v>
       </c>
-      <c r="G36" s="7" t="s">
+      <c r="G36" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="H36" s="7" t="s">
+      <c r="H36" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="I36" s="7" t="s">
+      <c r="I36" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="J36" s="8" t="s">
+      <c r="J36" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="K36" s="1" t="s">
         <v>217</v>
-      </c>
-      <c r="K36" s="8" t="s">
-        <v>218</v>
       </c>
       <c r="L36" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="M36" s="9" t="n">
+      <c r="M36" s="7" t="n">
         <f aca="false">N36*O36</f>
         <v>1049893.36</v>
       </c>
-      <c r="N36" s="10" t="n">
+      <c r="N36" s="8" t="n">
         <v>2069</v>
       </c>
-      <c r="O36" s="8" t="n">
+      <c r="O36" s="1" t="n">
         <v>507.44</v>
       </c>
-      <c r="P36" s="11" t="s">
+      <c r="P36" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="Q36" s="11"/>
-      <c r="R36" s="7" t="s">
+      <c r="Q36" s="9"/>
+      <c r="R36" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="S36" s="6"/>
+      <c r="T36" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="S36" s="7"/>
-      <c r="T36" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="U36" s="7"/>
+      <c r="U36" s="6"/>
     </row>
-    <row r="37" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="16" t="s">
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="B37" s="16" t="n">
+      <c r="B37" s="13" t="n">
         <v>98</v>
       </c>
-      <c r="C37" s="16"/>
+      <c r="C37" s="13"/>
       <c r="D37" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="E37" s="7" t="s">
+      <c r="E37" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="F37" s="6" t="n">
+        <v>24</v>
+      </c>
+      <c r="G37" s="6" t="s">
         <v>221</v>
       </c>
-      <c r="F37" s="7" t="n">
-        <v>24</v>
-      </c>
-      <c r="G37" s="7" t="s">
+      <c r="H37" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="I37" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="J37" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="H37" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="I37" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="J37" s="8" t="s">
+      <c r="K37" s="1" t="s">
         <v>223</v>
-      </c>
-      <c r="K37" s="8" t="s">
-        <v>224</v>
       </c>
       <c r="L37" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="M37" s="9" t="n">
+      <c r="M37" s="7" t="n">
         <f aca="false">N37*O37</f>
         <v>423562.48</v>
       </c>
-      <c r="N37" s="10" t="n">
+      <c r="N37" s="8" t="n">
         <v>1231</v>
       </c>
-      <c r="O37" s="8" t="n">
+      <c r="O37" s="1" t="n">
         <v>344.08</v>
       </c>
-      <c r="P37" s="11" t="s">
+      <c r="P37" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="Q37" s="11" t="s">
+      <c r="Q37" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="R37" s="7" t="s">
+      <c r="R37" s="14" t="s">
+        <v>224</v>
+      </c>
+      <c r="S37" s="6"/>
+      <c r="T37" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="S37" s="7"/>
-      <c r="T37" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="U37" s="7"/>
+      <c r="U37" s="6"/>
     </row>
     <row r="38" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="16" t="s">
+      <c r="A38" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="B38" s="16" t="n">
+      <c r="B38" s="13" t="n">
         <v>97</v>
       </c>
-      <c r="C38" s="16"/>
+      <c r="C38" s="13"/>
       <c r="D38" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="E38" s="6" t="s">
         <v>227</v>
       </c>
-      <c r="E38" s="7" t="s">
+      <c r="F38" s="6" t="n">
+        <v>121</v>
+      </c>
+      <c r="G38" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="F38" s="7" t="n">
-        <v>121</v>
-      </c>
-      <c r="G38" s="7" t="s">
+      <c r="H38" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="I38" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J38" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="H38" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="I38" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="J38" s="8" t="s">
+      <c r="K38" s="1" t="s">
         <v>230</v>
-      </c>
-      <c r="K38" s="8" t="s">
-        <v>231</v>
       </c>
       <c r="L38" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="M38" s="9" t="n">
+      <c r="M38" s="7" t="n">
         <f aca="false">N38*O38</f>
         <v>242847.74</v>
       </c>
-      <c r="N38" s="10" t="n">
+      <c r="N38" s="8" t="n">
         <v>1102</v>
       </c>
-      <c r="O38" s="8" t="n">
+      <c r="O38" s="1" t="n">
         <v>220.37</v>
       </c>
-      <c r="P38" s="11" t="s">
+      <c r="P38" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="Q38" s="9"/>
+      <c r="R38" s="6" t="s">
         <v>232</v>
       </c>
-      <c r="Q38" s="11"/>
-      <c r="R38" s="7" t="s">
+      <c r="S38" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="S38" s="7" t="s">
+      <c r="T38" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="T38" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="U38" s="7"/>
+      <c r="U38" s="6"/>
     </row>
     <row r="39" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="16" t="s">
+      <c r="A39" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="B39" s="16"/>
-      <c r="C39" s="17"/>
+      <c r="B39" s="13"/>
+      <c r="C39" s="13"/>
       <c r="D39" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="E39" s="6" t="s">
         <v>236</v>
       </c>
-      <c r="E39" s="7" t="s">
+      <c r="F39" s="6"/>
+      <c r="G39" s="6"/>
+      <c r="H39" s="6"/>
+      <c r="I39" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="J39" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="F39" s="7"/>
-      <c r="G39" s="7"/>
-      <c r="H39" s="7"/>
-      <c r="I39" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="J39" s="8" t="s">
+      <c r="K39" s="1" t="s">
         <v>238</v>
-      </c>
-      <c r="K39" s="8" t="s">
-        <v>239</v>
       </c>
       <c r="L39" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="M39" s="9" t="n">
+      <c r="M39" s="7" t="n">
         <f aca="false">N39*O39</f>
         <v>133820</v>
       </c>
-      <c r="N39" s="10" t="n">
+      <c r="N39" s="8" t="n">
         <v>500</v>
       </c>
-      <c r="O39" s="8" t="n">
+      <c r="O39" s="1" t="n">
         <v>267.64</v>
       </c>
-      <c r="P39" s="11" t="n">
+      <c r="P39" s="9" t="n">
         <v>43373</v>
       </c>
-      <c r="Q39" s="11"/>
-      <c r="R39" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="S39" s="7"/>
+      <c r="Q39" s="9"/>
+      <c r="R39" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="S39" s="6"/>
       <c r="T39" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="U39" s="7"/>
+      <c r="U39" s="6"/>
     </row>
-    <row r="40" s="13" customFormat="true" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="6" t="s">
         <v>19</v>
       </c>
@@ -3296,596 +3272,2122 @@
       </c>
       <c r="C40" s="6"/>
       <c r="D40" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="E40" s="6" t="s">
         <v>241</v>
       </c>
-      <c r="E40" s="7" t="s">
+      <c r="F40" s="6" t="n">
+        <v>110</v>
+      </c>
+      <c r="G40" s="6" t="s">
         <v>242</v>
       </c>
-      <c r="F40" s="7" t="n">
-        <v>110</v>
-      </c>
-      <c r="G40" s="7" t="s">
+      <c r="H40" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="I40" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="J40" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="H40" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="I40" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="J40" s="8" t="s">
-        <v>244</v>
-      </c>
-      <c r="K40" s="8"/>
       <c r="L40" s="6" t="s">
         <v>39</v>
       </c>
       <c r="M40" s="6"/>
-      <c r="N40" s="10"/>
-      <c r="O40" s="8" t="n">
+      <c r="N40" s="8"/>
+      <c r="O40" s="1" t="n">
         <v>266.78</v>
       </c>
-      <c r="P40" s="11"/>
-      <c r="Q40" s="11"/>
-      <c r="R40" s="7" t="s">
+      <c r="P40" s="9"/>
+      <c r="Q40" s="9"/>
+      <c r="R40" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="S40" s="6"/>
+      <c r="T40" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="S40" s="7"/>
-      <c r="T40" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="U40" s="7"/>
-      <c r="V40" s="18"/>
-      <c r="W40" s="18"/>
-      <c r="X40" s="18"/>
-      <c r="Y40" s="18"/>
-      <c r="Z40" s="18"/>
-      <c r="AA40" s="18"/>
-      <c r="AB40" s="18"/>
-      <c r="AC40" s="18"/>
-      <c r="AD40" s="18"/>
-      <c r="AE40" s="18"/>
-      <c r="AF40" s="18"/>
-      <c r="AG40" s="18"/>
-      <c r="AH40" s="18"/>
-      <c r="AI40" s="18"/>
-      <c r="AJ40" s="18"/>
-      <c r="AK40" s="18"/>
-      <c r="AL40" s="18"/>
-      <c r="AM40" s="18"/>
-      <c r="AN40" s="18"/>
-      <c r="AO40" s="18"/>
-      <c r="AP40" s="18"/>
-      <c r="AQ40" s="18"/>
-      <c r="AR40" s="18"/>
-      <c r="AS40" s="18"/>
-      <c r="AT40" s="18"/>
-      <c r="AU40" s="18"/>
-      <c r="AV40" s="18"/>
-      <c r="AW40" s="18"/>
-      <c r="AX40" s="18"/>
-      <c r="AY40" s="18"/>
-      <c r="AZ40" s="18"/>
-      <c r="BA40" s="18"/>
-      <c r="BB40" s="18"/>
-      <c r="BC40" s="18"/>
-      <c r="BD40" s="18"/>
-      <c r="BE40" s="18"/>
-      <c r="BF40" s="18"/>
-      <c r="BG40" s="18"/>
-      <c r="BH40" s="18"/>
-      <c r="BI40" s="18"/>
-      <c r="BJ40" s="18"/>
-      <c r="BK40" s="18"/>
-      <c r="BL40" s="18"/>
-      <c r="BM40" s="18"/>
-      <c r="BN40" s="18"/>
-      <c r="BO40" s="18"/>
-      <c r="BP40" s="18"/>
-      <c r="BQ40" s="18"/>
-      <c r="BR40" s="18"/>
-      <c r="BS40" s="18"/>
-      <c r="BT40" s="18"/>
-      <c r="BU40" s="18"/>
-      <c r="BV40" s="18"/>
-      <c r="BW40" s="18"/>
-      <c r="BX40" s="18"/>
-      <c r="BY40" s="18"/>
-      <c r="BZ40" s="18"/>
-      <c r="CA40" s="18"/>
-      <c r="CB40" s="18"/>
-      <c r="CC40" s="18"/>
-      <c r="CD40" s="18"/>
-      <c r="CE40" s="18"/>
-      <c r="CF40" s="18"/>
-      <c r="CG40" s="18"/>
-      <c r="CH40" s="18"/>
-      <c r="CI40" s="18"/>
-      <c r="CJ40" s="18"/>
-      <c r="CK40" s="18"/>
-      <c r="CL40" s="18"/>
-      <c r="CM40" s="18"/>
-      <c r="CN40" s="18"/>
-      <c r="CO40" s="18"/>
-      <c r="CP40" s="18"/>
-      <c r="CQ40" s="18"/>
-      <c r="CR40" s="18"/>
-      <c r="CS40" s="18"/>
-      <c r="CT40" s="18"/>
-      <c r="CU40" s="18"/>
-      <c r="CV40" s="18"/>
-      <c r="CW40" s="18"/>
-      <c r="CX40" s="18"/>
-      <c r="CY40" s="18"/>
-      <c r="CZ40" s="18"/>
-      <c r="DA40" s="18"/>
-      <c r="DB40" s="18"/>
-      <c r="DC40" s="18"/>
-      <c r="DD40" s="18"/>
-      <c r="DE40" s="18"/>
-      <c r="DF40" s="18"/>
-      <c r="DG40" s="18"/>
-      <c r="DH40" s="18"/>
-      <c r="DI40" s="18"/>
-      <c r="DJ40" s="18"/>
-      <c r="DK40" s="18"/>
-      <c r="DL40" s="18"/>
-      <c r="DM40" s="18"/>
-      <c r="DN40" s="18"/>
-      <c r="DO40" s="18"/>
-      <c r="DP40" s="18"/>
-      <c r="DQ40" s="18"/>
-      <c r="DR40" s="18"/>
-      <c r="DS40" s="18"/>
-      <c r="DT40" s="18"/>
-      <c r="DU40" s="18"/>
-      <c r="DV40" s="18"/>
-      <c r="DW40" s="18"/>
-      <c r="DX40" s="18"/>
-      <c r="DY40" s="18"/>
-      <c r="DZ40" s="18"/>
-      <c r="EA40" s="18"/>
-      <c r="EB40" s="18"/>
-      <c r="EC40" s="18"/>
-      <c r="ED40" s="18"/>
-      <c r="EE40" s="18"/>
-      <c r="EF40" s="18"/>
-      <c r="EG40" s="18"/>
-      <c r="EH40" s="18"/>
-      <c r="EI40" s="18"/>
-      <c r="EJ40" s="18"/>
-      <c r="EK40" s="18"/>
-      <c r="EL40" s="18"/>
-      <c r="EM40" s="18"/>
-      <c r="EN40" s="18"/>
-      <c r="EO40" s="18"/>
-      <c r="EP40" s="18"/>
-      <c r="EQ40" s="18"/>
-      <c r="ER40" s="18"/>
-      <c r="ES40" s="18"/>
-      <c r="ET40" s="18"/>
-      <c r="EU40" s="18"/>
-      <c r="EV40" s="18"/>
-      <c r="EW40" s="18"/>
-      <c r="EX40" s="18"/>
-      <c r="EY40" s="18"/>
-      <c r="EZ40" s="18"/>
-      <c r="FA40" s="18"/>
-      <c r="FB40" s="18"/>
-      <c r="FC40" s="18"/>
-      <c r="FD40" s="18"/>
-      <c r="FE40" s="18"/>
-      <c r="FF40" s="18"/>
-      <c r="FG40" s="18"/>
-      <c r="FH40" s="18"/>
-      <c r="FI40" s="18"/>
-      <c r="FJ40" s="18"/>
-      <c r="FK40" s="18"/>
-      <c r="FL40" s="18"/>
-      <c r="FM40" s="18"/>
-      <c r="FN40" s="18"/>
-      <c r="FO40" s="18"/>
-      <c r="FP40" s="18"/>
-      <c r="FQ40" s="18"/>
-      <c r="FR40" s="18"/>
-      <c r="FS40" s="18"/>
-      <c r="FT40" s="18"/>
-      <c r="FU40" s="18"/>
-      <c r="FV40" s="18"/>
-      <c r="FW40" s="18"/>
-      <c r="FX40" s="18"/>
-      <c r="FY40" s="18"/>
-      <c r="FZ40" s="18"/>
-      <c r="GA40" s="18"/>
-      <c r="GB40" s="18"/>
-      <c r="GC40" s="18"/>
-      <c r="GD40" s="18"/>
-      <c r="GE40" s="18"/>
-      <c r="GF40" s="18"/>
-      <c r="GG40" s="18"/>
-      <c r="GH40" s="18"/>
-      <c r="GI40" s="18"/>
-      <c r="GJ40" s="18"/>
-      <c r="GK40" s="18"/>
-      <c r="GL40" s="18"/>
-      <c r="GM40" s="18"/>
-      <c r="GN40" s="18"/>
-      <c r="GO40" s="18"/>
-      <c r="GP40" s="18"/>
-      <c r="GQ40" s="18"/>
-      <c r="GR40" s="18"/>
-      <c r="GS40" s="18"/>
-      <c r="GT40" s="18"/>
-      <c r="GU40" s="18"/>
-      <c r="GV40" s="18"/>
-      <c r="GW40" s="18"/>
-      <c r="GX40" s="18"/>
-      <c r="GY40" s="18"/>
-      <c r="GZ40" s="18"/>
-      <c r="HA40" s="18"/>
-      <c r="HB40" s="18"/>
-      <c r="HC40" s="18"/>
-      <c r="HD40" s="18"/>
-      <c r="HE40" s="18"/>
-      <c r="HF40" s="18"/>
-      <c r="HG40" s="18"/>
-      <c r="HH40" s="18"/>
-      <c r="HI40" s="18"/>
-      <c r="HJ40" s="18"/>
-      <c r="HK40" s="18"/>
-      <c r="HL40" s="18"/>
-      <c r="HM40" s="18"/>
-      <c r="HN40" s="18"/>
-      <c r="HO40" s="18"/>
-      <c r="HP40" s="18"/>
-      <c r="HQ40" s="18"/>
-      <c r="HR40" s="18"/>
-      <c r="HS40" s="18"/>
-      <c r="HT40" s="18"/>
-      <c r="HU40" s="18"/>
-      <c r="HV40" s="18"/>
-      <c r="HW40" s="18"/>
-      <c r="HX40" s="18"/>
-      <c r="HY40" s="18"/>
-      <c r="HZ40" s="18"/>
-      <c r="IA40" s="18"/>
-      <c r="IB40" s="18"/>
-      <c r="IC40" s="18"/>
-      <c r="ID40" s="18"/>
-      <c r="IE40" s="18"/>
-      <c r="IF40" s="18"/>
-      <c r="IG40" s="18"/>
-      <c r="IH40" s="18"/>
-      <c r="II40" s="18"/>
-      <c r="IJ40" s="18"/>
-      <c r="IK40" s="18"/>
-      <c r="IL40" s="18"/>
-      <c r="IM40" s="18"/>
-      <c r="IN40" s="18"/>
-      <c r="IO40" s="18"/>
-      <c r="IP40" s="18"/>
-      <c r="IQ40" s="18"/>
-      <c r="IR40" s="18"/>
-      <c r="IS40" s="18"/>
-      <c r="IT40" s="18"/>
-      <c r="IU40" s="18"/>
-      <c r="IV40" s="18"/>
-      <c r="IW40" s="18"/>
-      <c r="IX40" s="18"/>
+      <c r="U40" s="6"/>
+      <c r="V40" s="15"/>
+      <c r="W40" s="15"/>
+      <c r="X40" s="15"/>
+      <c r="Y40" s="15"/>
+      <c r="Z40" s="15"/>
+      <c r="AA40" s="15"/>
+      <c r="AB40" s="15"/>
+      <c r="AC40" s="15"/>
+      <c r="AD40" s="15"/>
+      <c r="AE40" s="15"/>
+      <c r="AF40" s="15"/>
+      <c r="AG40" s="15"/>
+      <c r="AH40" s="15"/>
+      <c r="AI40" s="15"/>
+      <c r="AJ40" s="15"/>
+      <c r="AK40" s="15"/>
+      <c r="AL40" s="15"/>
+      <c r="AM40" s="15"/>
+      <c r="AN40" s="15"/>
+      <c r="AO40" s="15"/>
+      <c r="AP40" s="15"/>
+      <c r="AQ40" s="15"/>
+      <c r="AR40" s="15"/>
+      <c r="AS40" s="15"/>
+      <c r="AT40" s="15"/>
+      <c r="AU40" s="15"/>
+      <c r="AV40" s="15"/>
+      <c r="AW40" s="15"/>
+      <c r="AX40" s="15"/>
+      <c r="AY40" s="15"/>
+      <c r="AZ40" s="15"/>
+      <c r="BA40" s="15"/>
+      <c r="BB40" s="15"/>
+      <c r="BC40" s="15"/>
+      <c r="BD40" s="15"/>
+      <c r="BE40" s="15"/>
+      <c r="BF40" s="15"/>
+      <c r="BG40" s="15"/>
+      <c r="BH40" s="15"/>
+      <c r="BI40" s="15"/>
+      <c r="BJ40" s="15"/>
+      <c r="BK40" s="15"/>
+      <c r="BL40" s="15"/>
+      <c r="BM40" s="15"/>
+      <c r="BN40" s="15"/>
+      <c r="BO40" s="15"/>
+      <c r="BP40" s="15"/>
+      <c r="BQ40" s="15"/>
+      <c r="BR40" s="15"/>
+      <c r="BS40" s="15"/>
+      <c r="BT40" s="15"/>
+      <c r="BU40" s="15"/>
+      <c r="BV40" s="15"/>
+      <c r="BW40" s="15"/>
+      <c r="BX40" s="15"/>
+      <c r="BY40" s="15"/>
+      <c r="BZ40" s="15"/>
+      <c r="CA40" s="15"/>
+      <c r="CB40" s="15"/>
+      <c r="CC40" s="15"/>
+      <c r="CD40" s="15"/>
+      <c r="CE40" s="15"/>
+      <c r="CF40" s="15"/>
+      <c r="CG40" s="15"/>
+      <c r="CH40" s="15"/>
+      <c r="CI40" s="15"/>
+      <c r="CJ40" s="15"/>
+      <c r="CK40" s="15"/>
+      <c r="CL40" s="15"/>
+      <c r="CM40" s="15"/>
+      <c r="CN40" s="15"/>
+      <c r="CO40" s="15"/>
+      <c r="CP40" s="15"/>
+      <c r="CQ40" s="15"/>
+      <c r="CR40" s="15"/>
+      <c r="CS40" s="15"/>
+      <c r="CT40" s="15"/>
+      <c r="CU40" s="15"/>
+      <c r="CV40" s="15"/>
+      <c r="CW40" s="15"/>
+      <c r="CX40" s="15"/>
+      <c r="CY40" s="15"/>
+      <c r="CZ40" s="15"/>
+      <c r="DA40" s="15"/>
+      <c r="DB40" s="15"/>
+      <c r="DC40" s="15"/>
+      <c r="DD40" s="15"/>
+      <c r="DE40" s="15"/>
+      <c r="DF40" s="15"/>
+      <c r="DG40" s="15"/>
+      <c r="DH40" s="15"/>
+      <c r="DI40" s="15"/>
+      <c r="DJ40" s="15"/>
+      <c r="DK40" s="15"/>
+      <c r="DL40" s="15"/>
+      <c r="DM40" s="15"/>
+      <c r="DN40" s="15"/>
+      <c r="DO40" s="15"/>
+      <c r="DP40" s="15"/>
+      <c r="DQ40" s="15"/>
+      <c r="DR40" s="15"/>
+      <c r="DS40" s="15"/>
+      <c r="DT40" s="15"/>
+      <c r="DU40" s="15"/>
+      <c r="DV40" s="15"/>
+      <c r="DW40" s="15"/>
+      <c r="DX40" s="15"/>
+      <c r="DY40" s="15"/>
+      <c r="DZ40" s="15"/>
+      <c r="EA40" s="15"/>
+      <c r="EB40" s="15"/>
+      <c r="EC40" s="15"/>
+      <c r="ED40" s="15"/>
+      <c r="EE40" s="15"/>
+      <c r="EF40" s="15"/>
+      <c r="EG40" s="15"/>
+      <c r="EH40" s="15"/>
+      <c r="EI40" s="15"/>
+      <c r="EJ40" s="15"/>
+      <c r="EK40" s="15"/>
+      <c r="EL40" s="15"/>
+      <c r="EM40" s="15"/>
+      <c r="EN40" s="15"/>
+      <c r="EO40" s="15"/>
+      <c r="EP40" s="15"/>
+      <c r="EQ40" s="15"/>
+      <c r="ER40" s="15"/>
+      <c r="ES40" s="15"/>
+      <c r="ET40" s="15"/>
+      <c r="EU40" s="15"/>
+      <c r="EV40" s="15"/>
+      <c r="EW40" s="15"/>
+      <c r="EX40" s="15"/>
+      <c r="EY40" s="15"/>
+      <c r="EZ40" s="15"/>
+      <c r="FA40" s="15"/>
+      <c r="FB40" s="15"/>
+      <c r="FC40" s="15"/>
+      <c r="FD40" s="15"/>
+      <c r="FE40" s="15"/>
+      <c r="FF40" s="15"/>
+      <c r="FG40" s="15"/>
+      <c r="FH40" s="15"/>
+      <c r="FI40" s="15"/>
+      <c r="FJ40" s="15"/>
+      <c r="FK40" s="15"/>
+      <c r="FL40" s="15"/>
+      <c r="FM40" s="15"/>
+      <c r="FN40" s="15"/>
+      <c r="FO40" s="15"/>
+      <c r="FP40" s="15"/>
+      <c r="FQ40" s="15"/>
+      <c r="FR40" s="15"/>
+      <c r="FS40" s="15"/>
+      <c r="FT40" s="15"/>
+      <c r="FU40" s="15"/>
+      <c r="FV40" s="15"/>
+      <c r="FW40" s="15"/>
+      <c r="FX40" s="15"/>
+      <c r="FY40" s="15"/>
+      <c r="FZ40" s="15"/>
+      <c r="GA40" s="15"/>
+      <c r="GB40" s="15"/>
+      <c r="GC40" s="15"/>
+      <c r="GD40" s="15"/>
+      <c r="GE40" s="15"/>
+      <c r="GF40" s="15"/>
+      <c r="GG40" s="15"/>
+      <c r="GH40" s="15"/>
+      <c r="GI40" s="15"/>
+      <c r="GJ40" s="15"/>
+      <c r="GK40" s="15"/>
+      <c r="GL40" s="15"/>
+      <c r="GM40" s="15"/>
+      <c r="GN40" s="15"/>
+      <c r="GO40" s="15"/>
+      <c r="GP40" s="15"/>
+      <c r="GQ40" s="15"/>
+      <c r="GR40" s="15"/>
+      <c r="GS40" s="15"/>
+      <c r="GT40" s="15"/>
+      <c r="GU40" s="15"/>
+      <c r="GV40" s="15"/>
+      <c r="GW40" s="15"/>
+      <c r="GX40" s="15"/>
+      <c r="GY40" s="15"/>
+      <c r="GZ40" s="15"/>
+      <c r="HA40" s="15"/>
+      <c r="HB40" s="15"/>
+      <c r="HC40" s="15"/>
+      <c r="HD40" s="15"/>
+      <c r="HE40" s="15"/>
+      <c r="HF40" s="15"/>
+      <c r="HG40" s="15"/>
+      <c r="HH40" s="15"/>
+      <c r="HI40" s="15"/>
+      <c r="HJ40" s="15"/>
+      <c r="HK40" s="15"/>
+      <c r="HL40" s="15"/>
+      <c r="HM40" s="15"/>
+      <c r="HN40" s="15"/>
+      <c r="HO40" s="15"/>
+      <c r="HP40" s="15"/>
+      <c r="HQ40" s="15"/>
+      <c r="HR40" s="15"/>
+      <c r="HS40" s="15"/>
+      <c r="HT40" s="15"/>
+      <c r="HU40" s="15"/>
+      <c r="HV40" s="15"/>
+      <c r="HW40" s="15"/>
+      <c r="HX40" s="15"/>
+      <c r="HY40" s="15"/>
+      <c r="HZ40" s="15"/>
+      <c r="IA40" s="15"/>
+      <c r="IB40" s="15"/>
+      <c r="IC40" s="15"/>
+      <c r="ID40" s="15"/>
+      <c r="IE40" s="15"/>
+      <c r="IF40" s="15"/>
+      <c r="IG40" s="15"/>
+      <c r="IH40" s="15"/>
+      <c r="II40" s="15"/>
+      <c r="IJ40" s="15"/>
+      <c r="IK40" s="15"/>
+      <c r="IL40" s="15"/>
+      <c r="IM40" s="15"/>
+      <c r="IN40" s="15"/>
+      <c r="IO40" s="15"/>
+      <c r="IP40" s="15"/>
+      <c r="IQ40" s="15"/>
+      <c r="IR40" s="15"/>
+      <c r="IS40" s="15"/>
+      <c r="IT40" s="15"/>
+      <c r="IU40" s="15"/>
+      <c r="IV40" s="15"/>
+      <c r="IW40" s="15"/>
+      <c r="IX40" s="15"/>
+      <c r="IY40" s="0"/>
+      <c r="IZ40" s="0"/>
+      <c r="JA40" s="0"/>
+      <c r="JB40" s="0"/>
+      <c r="JC40" s="0"/>
+      <c r="JD40" s="0"/>
+      <c r="JE40" s="0"/>
+      <c r="JF40" s="0"/>
+      <c r="JG40" s="0"/>
+      <c r="JH40" s="0"/>
+      <c r="JI40" s="0"/>
+      <c r="JJ40" s="0"/>
+      <c r="JK40" s="0"/>
+      <c r="JL40" s="0"/>
+      <c r="JM40" s="0"/>
+      <c r="JN40" s="0"/>
+      <c r="JO40" s="0"/>
+      <c r="JP40" s="0"/>
+      <c r="JQ40" s="0"/>
+      <c r="JR40" s="0"/>
+      <c r="JS40" s="0"/>
+      <c r="JT40" s="0"/>
+      <c r="JU40" s="0"/>
+      <c r="JV40" s="0"/>
+      <c r="JW40" s="0"/>
+      <c r="JX40" s="0"/>
+      <c r="JY40" s="0"/>
+      <c r="JZ40" s="0"/>
+      <c r="KA40" s="0"/>
+      <c r="KB40" s="0"/>
+      <c r="KC40" s="0"/>
+      <c r="KD40" s="0"/>
+      <c r="KE40" s="0"/>
+      <c r="KF40" s="0"/>
+      <c r="KG40" s="0"/>
+      <c r="KH40" s="0"/>
+      <c r="KI40" s="0"/>
+      <c r="KJ40" s="0"/>
+      <c r="KK40" s="0"/>
+      <c r="KL40" s="0"/>
+      <c r="KM40" s="0"/>
+      <c r="KN40" s="0"/>
+      <c r="KO40" s="0"/>
+      <c r="KP40" s="0"/>
+      <c r="KQ40" s="0"/>
+      <c r="KR40" s="0"/>
+      <c r="KS40" s="0"/>
+      <c r="KT40" s="0"/>
+      <c r="KU40" s="0"/>
+      <c r="KV40" s="0"/>
+      <c r="KW40" s="0"/>
+      <c r="KX40" s="0"/>
+      <c r="KY40" s="0"/>
+      <c r="KZ40" s="0"/>
+      <c r="LA40" s="0"/>
+      <c r="LB40" s="0"/>
+      <c r="LC40" s="0"/>
+      <c r="LD40" s="0"/>
+      <c r="LE40" s="0"/>
+      <c r="LF40" s="0"/>
+      <c r="LG40" s="0"/>
+      <c r="LH40" s="0"/>
+      <c r="LI40" s="0"/>
+      <c r="LJ40" s="0"/>
+      <c r="LK40" s="0"/>
+      <c r="LL40" s="0"/>
+      <c r="LM40" s="0"/>
+      <c r="LN40" s="0"/>
+      <c r="LO40" s="0"/>
+      <c r="LP40" s="0"/>
+      <c r="LQ40" s="0"/>
+      <c r="LR40" s="0"/>
+      <c r="LS40" s="0"/>
+      <c r="LT40" s="0"/>
+      <c r="LU40" s="0"/>
+      <c r="LV40" s="0"/>
+      <c r="LW40" s="0"/>
+      <c r="LX40" s="0"/>
+      <c r="LY40" s="0"/>
+      <c r="LZ40" s="0"/>
+      <c r="MA40" s="0"/>
+      <c r="MB40" s="0"/>
+      <c r="MC40" s="0"/>
+      <c r="MD40" s="0"/>
+      <c r="ME40" s="0"/>
+      <c r="MF40" s="0"/>
+      <c r="MG40" s="0"/>
+      <c r="MH40" s="0"/>
+      <c r="MI40" s="0"/>
+      <c r="MJ40" s="0"/>
+      <c r="MK40" s="0"/>
+      <c r="ML40" s="0"/>
+      <c r="MM40" s="0"/>
+      <c r="MN40" s="0"/>
+      <c r="MO40" s="0"/>
+      <c r="MP40" s="0"/>
+      <c r="MQ40" s="0"/>
+      <c r="MR40" s="0"/>
+      <c r="MS40" s="0"/>
+      <c r="MT40" s="0"/>
+      <c r="MU40" s="0"/>
+      <c r="MV40" s="0"/>
+      <c r="MW40" s="0"/>
+      <c r="MX40" s="0"/>
+      <c r="MY40" s="0"/>
+      <c r="MZ40" s="0"/>
+      <c r="NA40" s="0"/>
+      <c r="NB40" s="0"/>
+      <c r="NC40" s="0"/>
+      <c r="ND40" s="0"/>
+      <c r="NE40" s="0"/>
+      <c r="NF40" s="0"/>
+      <c r="NG40" s="0"/>
+      <c r="NH40" s="0"/>
+      <c r="NI40" s="0"/>
+      <c r="NJ40" s="0"/>
+      <c r="NK40" s="0"/>
+      <c r="NL40" s="0"/>
+      <c r="NM40" s="0"/>
+      <c r="NN40" s="0"/>
+      <c r="NO40" s="0"/>
+      <c r="NP40" s="0"/>
+      <c r="NQ40" s="0"/>
+      <c r="NR40" s="0"/>
+      <c r="NS40" s="0"/>
+      <c r="NT40" s="0"/>
+      <c r="NU40" s="0"/>
+      <c r="NV40" s="0"/>
+      <c r="NW40" s="0"/>
+      <c r="NX40" s="0"/>
+      <c r="NY40" s="0"/>
+      <c r="NZ40" s="0"/>
+      <c r="OA40" s="0"/>
+      <c r="OB40" s="0"/>
+      <c r="OC40" s="0"/>
+      <c r="OD40" s="0"/>
+      <c r="OE40" s="0"/>
+      <c r="OF40" s="0"/>
+      <c r="OG40" s="0"/>
+      <c r="OH40" s="0"/>
+      <c r="OI40" s="0"/>
+      <c r="OJ40" s="0"/>
+      <c r="OK40" s="0"/>
+      <c r="OL40" s="0"/>
+      <c r="OM40" s="0"/>
+      <c r="ON40" s="0"/>
+      <c r="OO40" s="0"/>
+      <c r="OP40" s="0"/>
+      <c r="OQ40" s="0"/>
+      <c r="OR40" s="0"/>
+      <c r="OS40" s="0"/>
+      <c r="OT40" s="0"/>
+      <c r="OU40" s="0"/>
+      <c r="OV40" s="0"/>
+      <c r="OW40" s="0"/>
+      <c r="OX40" s="0"/>
+      <c r="OY40" s="0"/>
+      <c r="OZ40" s="0"/>
+      <c r="PA40" s="0"/>
+      <c r="PB40" s="0"/>
+      <c r="PC40" s="0"/>
+      <c r="PD40" s="0"/>
+      <c r="PE40" s="0"/>
+      <c r="PF40" s="0"/>
+      <c r="PG40" s="0"/>
+      <c r="PH40" s="0"/>
+      <c r="PI40" s="0"/>
+      <c r="PJ40" s="0"/>
+      <c r="PK40" s="0"/>
+      <c r="PL40" s="0"/>
+      <c r="PM40" s="0"/>
+      <c r="PN40" s="0"/>
+      <c r="PO40" s="0"/>
+      <c r="PP40" s="0"/>
+      <c r="PQ40" s="0"/>
+      <c r="PR40" s="0"/>
+      <c r="PS40" s="0"/>
+      <c r="PT40" s="0"/>
+      <c r="PU40" s="0"/>
+      <c r="PV40" s="0"/>
+      <c r="PW40" s="0"/>
+      <c r="PX40" s="0"/>
+      <c r="PY40" s="0"/>
+      <c r="PZ40" s="0"/>
+      <c r="QA40" s="0"/>
+      <c r="QB40" s="0"/>
+      <c r="QC40" s="0"/>
+      <c r="QD40" s="0"/>
+      <c r="QE40" s="0"/>
+      <c r="QF40" s="0"/>
+      <c r="QG40" s="0"/>
+      <c r="QH40" s="0"/>
+      <c r="QI40" s="0"/>
+      <c r="QJ40" s="0"/>
+      <c r="QK40" s="0"/>
+      <c r="QL40" s="0"/>
+      <c r="QM40" s="0"/>
+      <c r="QN40" s="0"/>
+      <c r="QO40" s="0"/>
+      <c r="QP40" s="0"/>
+      <c r="QQ40" s="0"/>
+      <c r="QR40" s="0"/>
+      <c r="QS40" s="0"/>
+      <c r="QT40" s="0"/>
+      <c r="QU40" s="0"/>
+      <c r="QV40" s="0"/>
+      <c r="QW40" s="0"/>
+      <c r="QX40" s="0"/>
+      <c r="QY40" s="0"/>
+      <c r="QZ40" s="0"/>
+      <c r="RA40" s="0"/>
+      <c r="RB40" s="0"/>
+      <c r="RC40" s="0"/>
+      <c r="RD40" s="0"/>
+      <c r="RE40" s="0"/>
+      <c r="RF40" s="0"/>
+      <c r="RG40" s="0"/>
+      <c r="RH40" s="0"/>
+      <c r="RI40" s="0"/>
+      <c r="RJ40" s="0"/>
+      <c r="RK40" s="0"/>
+      <c r="RL40" s="0"/>
+      <c r="RM40" s="0"/>
+      <c r="RN40" s="0"/>
+      <c r="RO40" s="0"/>
+      <c r="RP40" s="0"/>
+      <c r="RQ40" s="0"/>
+      <c r="RR40" s="0"/>
+      <c r="RS40" s="0"/>
+      <c r="RT40" s="0"/>
+      <c r="RU40" s="0"/>
+      <c r="RV40" s="0"/>
+      <c r="RW40" s="0"/>
+      <c r="RX40" s="0"/>
+      <c r="RY40" s="0"/>
+      <c r="RZ40" s="0"/>
+      <c r="SA40" s="0"/>
+      <c r="SB40" s="0"/>
+      <c r="SC40" s="0"/>
+      <c r="SD40" s="0"/>
+      <c r="SE40" s="0"/>
+      <c r="SF40" s="0"/>
+      <c r="SG40" s="0"/>
+      <c r="SH40" s="0"/>
+      <c r="SI40" s="0"/>
+      <c r="SJ40" s="0"/>
+      <c r="SK40" s="0"/>
+      <c r="SL40" s="0"/>
+      <c r="SM40" s="0"/>
+      <c r="SN40" s="0"/>
+      <c r="SO40" s="0"/>
+      <c r="SP40" s="0"/>
+      <c r="SQ40" s="0"/>
+      <c r="SR40" s="0"/>
+      <c r="SS40" s="0"/>
+      <c r="ST40" s="0"/>
+      <c r="SU40" s="0"/>
+      <c r="SV40" s="0"/>
+      <c r="SW40" s="0"/>
+      <c r="SX40" s="0"/>
+      <c r="SY40" s="0"/>
+      <c r="SZ40" s="0"/>
+      <c r="TA40" s="0"/>
+      <c r="TB40" s="0"/>
+      <c r="TC40" s="0"/>
+      <c r="TD40" s="0"/>
+      <c r="TE40" s="0"/>
+      <c r="TF40" s="0"/>
+      <c r="TG40" s="0"/>
+      <c r="TH40" s="0"/>
+      <c r="TI40" s="0"/>
+      <c r="TJ40" s="0"/>
+      <c r="TK40" s="0"/>
+      <c r="TL40" s="0"/>
+      <c r="TM40" s="0"/>
+      <c r="TN40" s="0"/>
+      <c r="TO40" s="0"/>
+      <c r="TP40" s="0"/>
+      <c r="TQ40" s="0"/>
+      <c r="TR40" s="0"/>
+      <c r="TS40" s="0"/>
+      <c r="TT40" s="0"/>
+      <c r="TU40" s="0"/>
+      <c r="TV40" s="0"/>
+      <c r="TW40" s="0"/>
+      <c r="TX40" s="0"/>
+      <c r="TY40" s="0"/>
+      <c r="TZ40" s="0"/>
+      <c r="UA40" s="0"/>
+      <c r="UB40" s="0"/>
+      <c r="UC40" s="0"/>
+      <c r="UD40" s="0"/>
+      <c r="UE40" s="0"/>
+      <c r="UF40" s="0"/>
+      <c r="UG40" s="0"/>
+      <c r="UH40" s="0"/>
+      <c r="UI40" s="0"/>
+      <c r="UJ40" s="0"/>
+      <c r="UK40" s="0"/>
+      <c r="UL40" s="0"/>
+      <c r="UM40" s="0"/>
+      <c r="UN40" s="0"/>
+      <c r="UO40" s="0"/>
+      <c r="UP40" s="0"/>
+      <c r="UQ40" s="0"/>
+      <c r="UR40" s="0"/>
+      <c r="US40" s="0"/>
+      <c r="UT40" s="0"/>
+      <c r="UU40" s="0"/>
+      <c r="UV40" s="0"/>
+      <c r="UW40" s="0"/>
+      <c r="UX40" s="0"/>
+      <c r="UY40" s="0"/>
+      <c r="UZ40" s="0"/>
+      <c r="VA40" s="0"/>
+      <c r="VB40" s="0"/>
+      <c r="VC40" s="0"/>
+      <c r="VD40" s="0"/>
+      <c r="VE40" s="0"/>
+      <c r="VF40" s="0"/>
+      <c r="VG40" s="0"/>
+      <c r="VH40" s="0"/>
+      <c r="VI40" s="0"/>
+      <c r="VJ40" s="0"/>
+      <c r="VK40" s="0"/>
+      <c r="VL40" s="0"/>
+      <c r="VM40" s="0"/>
+      <c r="VN40" s="0"/>
+      <c r="VO40" s="0"/>
+      <c r="VP40" s="0"/>
+      <c r="VQ40" s="0"/>
+      <c r="VR40" s="0"/>
+      <c r="VS40" s="0"/>
+      <c r="VT40" s="0"/>
+      <c r="VU40" s="0"/>
+      <c r="VV40" s="0"/>
+      <c r="VW40" s="0"/>
+      <c r="VX40" s="0"/>
+      <c r="VY40" s="0"/>
+      <c r="VZ40" s="0"/>
+      <c r="WA40" s="0"/>
+      <c r="WB40" s="0"/>
+      <c r="WC40" s="0"/>
+      <c r="WD40" s="0"/>
+      <c r="WE40" s="0"/>
+      <c r="WF40" s="0"/>
+      <c r="WG40" s="0"/>
+      <c r="WH40" s="0"/>
+      <c r="WI40" s="0"/>
+      <c r="WJ40" s="0"/>
+      <c r="WK40" s="0"/>
+      <c r="WL40" s="0"/>
+      <c r="WM40" s="0"/>
+      <c r="WN40" s="0"/>
+      <c r="WO40" s="0"/>
+      <c r="WP40" s="0"/>
+      <c r="WQ40" s="0"/>
+      <c r="WR40" s="0"/>
+      <c r="WS40" s="0"/>
+      <c r="WT40" s="0"/>
+      <c r="WU40" s="0"/>
+      <c r="WV40" s="0"/>
+      <c r="WW40" s="0"/>
+      <c r="WX40" s="0"/>
+      <c r="WY40" s="0"/>
+      <c r="WZ40" s="0"/>
+      <c r="XA40" s="0"/>
+      <c r="XB40" s="0"/>
+      <c r="XC40" s="0"/>
+      <c r="XD40" s="0"/>
+      <c r="XE40" s="0"/>
+      <c r="XF40" s="0"/>
+      <c r="XG40" s="0"/>
+      <c r="XH40" s="0"/>
+      <c r="XI40" s="0"/>
+      <c r="XJ40" s="0"/>
+      <c r="XK40" s="0"/>
+      <c r="XL40" s="0"/>
+      <c r="XM40" s="0"/>
+      <c r="XN40" s="0"/>
+      <c r="XO40" s="0"/>
+      <c r="XP40" s="0"/>
+      <c r="XQ40" s="0"/>
+      <c r="XR40" s="0"/>
+      <c r="XS40" s="0"/>
+      <c r="XT40" s="0"/>
+      <c r="XU40" s="0"/>
+      <c r="XV40" s="0"/>
+      <c r="XW40" s="0"/>
+      <c r="XX40" s="0"/>
+      <c r="XY40" s="0"/>
+      <c r="XZ40" s="0"/>
+      <c r="YA40" s="0"/>
+      <c r="YB40" s="0"/>
+      <c r="YC40" s="0"/>
+      <c r="YD40" s="0"/>
+      <c r="YE40" s="0"/>
+      <c r="YF40" s="0"/>
+      <c r="YG40" s="0"/>
+      <c r="YH40" s="0"/>
+      <c r="YI40" s="0"/>
+      <c r="YJ40" s="0"/>
+      <c r="YK40" s="0"/>
+      <c r="YL40" s="0"/>
+      <c r="YM40" s="0"/>
+      <c r="YN40" s="0"/>
+      <c r="YO40" s="0"/>
+      <c r="YP40" s="0"/>
+      <c r="YQ40" s="0"/>
+      <c r="YR40" s="0"/>
+      <c r="YS40" s="0"/>
+      <c r="YT40" s="0"/>
+      <c r="YU40" s="0"/>
+      <c r="YV40" s="0"/>
+      <c r="YW40" s="0"/>
+      <c r="YX40" s="0"/>
+      <c r="YY40" s="0"/>
+      <c r="YZ40" s="0"/>
+      <c r="ZA40" s="0"/>
+      <c r="ZB40" s="0"/>
+      <c r="ZC40" s="0"/>
+      <c r="ZD40" s="0"/>
+      <c r="ZE40" s="0"/>
+      <c r="ZF40" s="0"/>
+      <c r="ZG40" s="0"/>
+      <c r="ZH40" s="0"/>
+      <c r="ZI40" s="0"/>
+      <c r="ZJ40" s="0"/>
+      <c r="ZK40" s="0"/>
+      <c r="ZL40" s="0"/>
+      <c r="ZM40" s="0"/>
+      <c r="ZN40" s="0"/>
+      <c r="ZO40" s="0"/>
+      <c r="ZP40" s="0"/>
+      <c r="ZQ40" s="0"/>
+      <c r="ZR40" s="0"/>
+      <c r="ZS40" s="0"/>
+      <c r="ZT40" s="0"/>
+      <c r="ZU40" s="0"/>
+      <c r="ZV40" s="0"/>
+      <c r="ZW40" s="0"/>
+      <c r="ZX40" s="0"/>
+      <c r="ZY40" s="0"/>
+      <c r="ZZ40" s="0"/>
+      <c r="AAA40" s="0"/>
+      <c r="AAB40" s="0"/>
+      <c r="AAC40" s="0"/>
+      <c r="AAD40" s="0"/>
+      <c r="AAE40" s="0"/>
+      <c r="AAF40" s="0"/>
+      <c r="AAG40" s="0"/>
+      <c r="AAH40" s="0"/>
+      <c r="AAI40" s="0"/>
+      <c r="AAJ40" s="0"/>
+      <c r="AAK40" s="0"/>
+      <c r="AAL40" s="0"/>
+      <c r="AAM40" s="0"/>
+      <c r="AAN40" s="0"/>
+      <c r="AAO40" s="0"/>
+      <c r="AAP40" s="0"/>
+      <c r="AAQ40" s="0"/>
+      <c r="AAR40" s="0"/>
+      <c r="AAS40" s="0"/>
+      <c r="AAT40" s="0"/>
+      <c r="AAU40" s="0"/>
+      <c r="AAV40" s="0"/>
+      <c r="AAW40" s="0"/>
+      <c r="AAX40" s="0"/>
+      <c r="AAY40" s="0"/>
+      <c r="AAZ40" s="0"/>
+      <c r="ABA40" s="0"/>
+      <c r="ABB40" s="0"/>
+      <c r="ABC40" s="0"/>
+      <c r="ABD40" s="0"/>
+      <c r="ABE40" s="0"/>
+      <c r="ABF40" s="0"/>
+      <c r="ABG40" s="0"/>
+      <c r="ABH40" s="0"/>
+      <c r="ABI40" s="0"/>
+      <c r="ABJ40" s="0"/>
+      <c r="ABK40" s="0"/>
+      <c r="ABL40" s="0"/>
+      <c r="ABM40" s="0"/>
+      <c r="ABN40" s="0"/>
+      <c r="ABO40" s="0"/>
+      <c r="ABP40" s="0"/>
+      <c r="ABQ40" s="0"/>
+      <c r="ABR40" s="0"/>
+      <c r="ABS40" s="0"/>
+      <c r="ABT40" s="0"/>
+      <c r="ABU40" s="0"/>
+      <c r="ABV40" s="0"/>
+      <c r="ABW40" s="0"/>
+      <c r="ABX40" s="0"/>
+      <c r="ABY40" s="0"/>
+      <c r="ABZ40" s="0"/>
+      <c r="ACA40" s="0"/>
+      <c r="ACB40" s="0"/>
+      <c r="ACC40" s="0"/>
+      <c r="ACD40" s="0"/>
+      <c r="ACE40" s="0"/>
+      <c r="ACF40" s="0"/>
+      <c r="ACG40" s="0"/>
+      <c r="ACH40" s="0"/>
+      <c r="ACI40" s="0"/>
+      <c r="ACJ40" s="0"/>
+      <c r="ACK40" s="0"/>
+      <c r="ACL40" s="0"/>
+      <c r="ACM40" s="0"/>
+      <c r="ACN40" s="0"/>
+      <c r="ACO40" s="0"/>
+      <c r="ACP40" s="0"/>
+      <c r="ACQ40" s="0"/>
+      <c r="ACR40" s="0"/>
+      <c r="ACS40" s="0"/>
+      <c r="ACT40" s="0"/>
+      <c r="ACU40" s="0"/>
+      <c r="ACV40" s="0"/>
+      <c r="ACW40" s="0"/>
+      <c r="ACX40" s="0"/>
+      <c r="ACY40" s="0"/>
+      <c r="ACZ40" s="0"/>
+      <c r="ADA40" s="0"/>
+      <c r="ADB40" s="0"/>
+      <c r="ADC40" s="0"/>
+      <c r="ADD40" s="0"/>
+      <c r="ADE40" s="0"/>
+      <c r="ADF40" s="0"/>
+      <c r="ADG40" s="0"/>
+      <c r="ADH40" s="0"/>
+      <c r="ADI40" s="0"/>
+      <c r="ADJ40" s="0"/>
+      <c r="ADK40" s="0"/>
+      <c r="ADL40" s="0"/>
+      <c r="ADM40" s="0"/>
+      <c r="ADN40" s="0"/>
+      <c r="ADO40" s="0"/>
+      <c r="ADP40" s="0"/>
+      <c r="ADQ40" s="0"/>
+      <c r="ADR40" s="0"/>
+      <c r="ADS40" s="0"/>
+      <c r="ADT40" s="0"/>
+      <c r="ADU40" s="0"/>
+      <c r="ADV40" s="0"/>
+      <c r="ADW40" s="0"/>
+      <c r="ADX40" s="0"/>
+      <c r="ADY40" s="0"/>
+      <c r="ADZ40" s="0"/>
+      <c r="AEA40" s="0"/>
+      <c r="AEB40" s="0"/>
+      <c r="AEC40" s="0"/>
+      <c r="AED40" s="0"/>
+      <c r="AEE40" s="0"/>
+      <c r="AEF40" s="0"/>
+      <c r="AEG40" s="0"/>
+      <c r="AEH40" s="0"/>
+      <c r="AEI40" s="0"/>
+      <c r="AEJ40" s="0"/>
+      <c r="AEK40" s="0"/>
+      <c r="AEL40" s="0"/>
+      <c r="AEM40" s="0"/>
+      <c r="AEN40" s="0"/>
+      <c r="AEO40" s="0"/>
+      <c r="AEP40" s="0"/>
+      <c r="AEQ40" s="0"/>
+      <c r="AER40" s="0"/>
+      <c r="AES40" s="0"/>
+      <c r="AET40" s="0"/>
+      <c r="AEU40" s="0"/>
+      <c r="AEV40" s="0"/>
+      <c r="AEW40" s="0"/>
+      <c r="AEX40" s="0"/>
+      <c r="AEY40" s="0"/>
+      <c r="AEZ40" s="0"/>
+      <c r="AFA40" s="0"/>
+      <c r="AFB40" s="0"/>
+      <c r="AFC40" s="0"/>
+      <c r="AFD40" s="0"/>
+      <c r="AFE40" s="0"/>
+      <c r="AFF40" s="0"/>
+      <c r="AFG40" s="0"/>
+      <c r="AFH40" s="0"/>
+      <c r="AFI40" s="0"/>
+      <c r="AFJ40" s="0"/>
+      <c r="AFK40" s="0"/>
+      <c r="AFL40" s="0"/>
+      <c r="AFM40" s="0"/>
+      <c r="AFN40" s="0"/>
+      <c r="AFO40" s="0"/>
+      <c r="AFP40" s="0"/>
+      <c r="AFQ40" s="0"/>
+      <c r="AFR40" s="0"/>
+      <c r="AFS40" s="0"/>
+      <c r="AFT40" s="0"/>
+      <c r="AFU40" s="0"/>
+      <c r="AFV40" s="0"/>
+      <c r="AFW40" s="0"/>
+      <c r="AFX40" s="0"/>
+      <c r="AFY40" s="0"/>
+      <c r="AFZ40" s="0"/>
+      <c r="AGA40" s="0"/>
+      <c r="AGB40" s="0"/>
+      <c r="AGC40" s="0"/>
+      <c r="AGD40" s="0"/>
+      <c r="AGE40" s="0"/>
+      <c r="AGF40" s="0"/>
+      <c r="AGG40" s="0"/>
+      <c r="AGH40" s="0"/>
+      <c r="AGI40" s="0"/>
+      <c r="AGJ40" s="0"/>
+      <c r="AGK40" s="0"/>
+      <c r="AGL40" s="0"/>
+      <c r="AGM40" s="0"/>
+      <c r="AGN40" s="0"/>
+      <c r="AGO40" s="0"/>
+      <c r="AGP40" s="0"/>
+      <c r="AGQ40" s="0"/>
+      <c r="AGR40" s="0"/>
+      <c r="AGS40" s="0"/>
+      <c r="AGT40" s="0"/>
+      <c r="AGU40" s="0"/>
+      <c r="AGV40" s="0"/>
+      <c r="AGW40" s="0"/>
+      <c r="AGX40" s="0"/>
+      <c r="AGY40" s="0"/>
+      <c r="AGZ40" s="0"/>
+      <c r="AHA40" s="0"/>
+      <c r="AHB40" s="0"/>
+      <c r="AHC40" s="0"/>
+      <c r="AHD40" s="0"/>
+      <c r="AHE40" s="0"/>
+      <c r="AHF40" s="0"/>
+      <c r="AHG40" s="0"/>
+      <c r="AHH40" s="0"/>
+      <c r="AHI40" s="0"/>
+      <c r="AHJ40" s="0"/>
+      <c r="AHK40" s="0"/>
+      <c r="AHL40" s="0"/>
+      <c r="AHM40" s="0"/>
+      <c r="AHN40" s="0"/>
+      <c r="AHO40" s="0"/>
+      <c r="AHP40" s="0"/>
+      <c r="AHQ40" s="0"/>
+      <c r="AHR40" s="0"/>
+      <c r="AHS40" s="0"/>
+      <c r="AHT40" s="0"/>
+      <c r="AHU40" s="0"/>
+      <c r="AHV40" s="0"/>
+      <c r="AHW40" s="0"/>
+      <c r="AHX40" s="0"/>
+      <c r="AHY40" s="0"/>
+      <c r="AHZ40" s="0"/>
+      <c r="AIA40" s="0"/>
+      <c r="AIB40" s="0"/>
+      <c r="AIC40" s="0"/>
+      <c r="AID40" s="0"/>
+      <c r="AIE40" s="0"/>
+      <c r="AIF40" s="0"/>
+      <c r="AIG40" s="0"/>
+      <c r="AIH40" s="0"/>
+      <c r="AII40" s="0"/>
+      <c r="AIJ40" s="0"/>
+      <c r="AIK40" s="0"/>
+      <c r="AIL40" s="0"/>
+      <c r="AIM40" s="0"/>
+      <c r="AIN40" s="0"/>
+      <c r="AIO40" s="0"/>
+      <c r="AIP40" s="0"/>
+      <c r="AIQ40" s="0"/>
+      <c r="AIR40" s="0"/>
+      <c r="AIS40" s="0"/>
+      <c r="AIT40" s="0"/>
+      <c r="AIU40" s="0"/>
+      <c r="AIV40" s="0"/>
+      <c r="AIW40" s="0"/>
+      <c r="AIX40" s="0"/>
+      <c r="AIY40" s="0"/>
+      <c r="AIZ40" s="0"/>
+      <c r="AJA40" s="0"/>
+      <c r="AJB40" s="0"/>
+      <c r="AJC40" s="0"/>
+      <c r="AJD40" s="0"/>
+      <c r="AJE40" s="0"/>
+      <c r="AJF40" s="0"/>
+      <c r="AJG40" s="0"/>
+      <c r="AJH40" s="0"/>
+      <c r="AJI40" s="0"/>
+      <c r="AJJ40" s="0"/>
+      <c r="AJK40" s="0"/>
+      <c r="AJL40" s="0"/>
+      <c r="AJM40" s="0"/>
+      <c r="AJN40" s="0"/>
+      <c r="AJO40" s="0"/>
+      <c r="AJP40" s="0"/>
+      <c r="AJQ40" s="0"/>
+      <c r="AJR40" s="0"/>
+      <c r="AJS40" s="0"/>
+      <c r="AJT40" s="0"/>
+      <c r="AJU40" s="0"/>
+      <c r="AJV40" s="0"/>
+      <c r="AJW40" s="0"/>
+      <c r="AJX40" s="0"/>
+      <c r="AJY40" s="0"/>
+      <c r="AJZ40" s="0"/>
+      <c r="AKA40" s="0"/>
+      <c r="AKB40" s="0"/>
+      <c r="AKC40" s="0"/>
+      <c r="AKD40" s="0"/>
+      <c r="AKE40" s="0"/>
+      <c r="AKF40" s="0"/>
+      <c r="AKG40" s="0"/>
+      <c r="AKH40" s="0"/>
+      <c r="AKI40" s="0"/>
+      <c r="AKJ40" s="0"/>
+      <c r="AKK40" s="0"/>
+      <c r="AKL40" s="0"/>
+      <c r="AKM40" s="0"/>
+      <c r="AKN40" s="0"/>
+      <c r="AKO40" s="0"/>
+      <c r="AKP40" s="0"/>
+      <c r="AKQ40" s="0"/>
+      <c r="AKR40" s="0"/>
+      <c r="AKS40" s="0"/>
+      <c r="AKT40" s="0"/>
+      <c r="AKU40" s="0"/>
+      <c r="AKV40" s="0"/>
+      <c r="AKW40" s="0"/>
+      <c r="AKX40" s="0"/>
+      <c r="AKY40" s="0"/>
+      <c r="AKZ40" s="0"/>
+      <c r="ALA40" s="0"/>
+      <c r="ALB40" s="0"/>
+      <c r="ALC40" s="0"/>
+      <c r="ALD40" s="0"/>
+      <c r="ALE40" s="0"/>
+      <c r="ALF40" s="0"/>
+      <c r="ALG40" s="0"/>
+      <c r="ALH40" s="0"/>
+      <c r="ALI40" s="0"/>
+      <c r="ALJ40" s="0"/>
+      <c r="ALK40" s="0"/>
+      <c r="ALL40" s="0"/>
+      <c r="ALM40" s="0"/>
+      <c r="ALN40" s="0"/>
+      <c r="ALO40" s="0"/>
+      <c r="ALP40" s="0"/>
+      <c r="ALQ40" s="0"/>
+      <c r="ALR40" s="0"/>
+      <c r="ALS40" s="0"/>
+      <c r="ALT40" s="0"/>
+      <c r="ALU40" s="0"/>
+      <c r="ALV40" s="0"/>
+      <c r="ALW40" s="0"/>
+      <c r="ALX40" s="0"/>
+      <c r="ALY40" s="0"/>
+      <c r="ALZ40" s="0"/>
+      <c r="AMA40" s="0"/>
+      <c r="AMB40" s="0"/>
+      <c r="AMC40" s="0"/>
+      <c r="AMD40" s="0"/>
+      <c r="AME40" s="0"/>
+      <c r="AMF40" s="0"/>
+      <c r="AMG40" s="0"/>
+      <c r="AMH40" s="0"/>
+      <c r="AMI40" s="0"/>
+      <c r="AMJ40" s="0"/>
     </row>
-    <row r="41" s="13" customFormat="true" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="6" t="s">
         <v>19</v>
       </c>
       <c r="B41" s="6" t="n">
         <v>308</v>
       </c>
-      <c r="C41" s="7" t="n">
+      <c r="C41" s="6" t="n">
         <v>7</v>
       </c>
       <c r="D41" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="E41" s="6" t="s">
         <v>247</v>
       </c>
-      <c r="E41" s="7" t="s">
+      <c r="F41" s="6" t="n">
+        <v>1574</v>
+      </c>
+      <c r="G41" s="6" t="s">
         <v>248</v>
       </c>
-      <c r="F41" s="7" t="n">
-        <v>1574</v>
-      </c>
-      <c r="G41" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="H41" s="7" t="s">
+      <c r="H41" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="I41" s="7" t="s">
+      <c r="I41" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="J41" s="8" t="s">
-        <v>244</v>
-      </c>
-      <c r="K41" s="8"/>
+      <c r="J41" s="1" t="s">
+        <v>243</v>
+      </c>
       <c r="L41" s="6" t="s">
         <v>39</v>
       </c>
       <c r="M41" s="6"/>
-      <c r="N41" s="10"/>
-      <c r="O41" s="8" t="n">
+      <c r="N41" s="8"/>
+      <c r="O41" s="1" t="n">
         <v>167.55</v>
       </c>
-      <c r="P41" s="11"/>
-      <c r="Q41" s="11"/>
-      <c r="R41" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="S41" s="7"/>
-      <c r="T41" s="1"/>
-      <c r="U41" s="7"/>
-      <c r="V41" s="18"/>
-      <c r="W41" s="18"/>
-      <c r="X41" s="18"/>
-      <c r="Y41" s="18"/>
-      <c r="Z41" s="18"/>
-      <c r="AA41" s="18"/>
-      <c r="AB41" s="18"/>
-      <c r="AC41" s="18"/>
-      <c r="AD41" s="18"/>
-      <c r="AE41" s="18"/>
-      <c r="AF41" s="18"/>
-      <c r="AG41" s="18"/>
-      <c r="AH41" s="18"/>
-      <c r="AI41" s="18"/>
-      <c r="AJ41" s="18"/>
-      <c r="AK41" s="18"/>
-      <c r="AL41" s="18"/>
-      <c r="AM41" s="18"/>
-      <c r="AN41" s="18"/>
-      <c r="AO41" s="18"/>
-      <c r="AP41" s="18"/>
-      <c r="AQ41" s="18"/>
-      <c r="AR41" s="18"/>
-      <c r="AS41" s="18"/>
-      <c r="AT41" s="18"/>
-      <c r="AU41" s="18"/>
-      <c r="AV41" s="18"/>
-      <c r="AW41" s="18"/>
-      <c r="AX41" s="18"/>
-      <c r="AY41" s="18"/>
-      <c r="AZ41" s="18"/>
-      <c r="BA41" s="18"/>
-      <c r="BB41" s="18"/>
-      <c r="BC41" s="18"/>
-      <c r="BD41" s="18"/>
-      <c r="BE41" s="18"/>
-      <c r="BF41" s="18"/>
-      <c r="BG41" s="18"/>
-      <c r="BH41" s="18"/>
-      <c r="BI41" s="18"/>
-      <c r="BJ41" s="18"/>
-      <c r="BK41" s="18"/>
-      <c r="BL41" s="18"/>
-      <c r="BM41" s="18"/>
-      <c r="BN41" s="18"/>
-      <c r="BO41" s="18"/>
-      <c r="BP41" s="18"/>
-      <c r="BQ41" s="18"/>
-      <c r="BR41" s="18"/>
-      <c r="BS41" s="18"/>
-      <c r="BT41" s="18"/>
-      <c r="BU41" s="18"/>
-      <c r="BV41" s="18"/>
-      <c r="BW41" s="18"/>
-      <c r="BX41" s="18"/>
-      <c r="BY41" s="18"/>
-      <c r="BZ41" s="18"/>
-      <c r="CA41" s="18"/>
-      <c r="CB41" s="18"/>
-      <c r="CC41" s="18"/>
-      <c r="CD41" s="18"/>
-      <c r="CE41" s="18"/>
-      <c r="CF41" s="18"/>
-      <c r="CG41" s="18"/>
-      <c r="CH41" s="18"/>
-      <c r="CI41" s="18"/>
-      <c r="CJ41" s="18"/>
-      <c r="CK41" s="18"/>
-      <c r="CL41" s="18"/>
-      <c r="CM41" s="18"/>
-      <c r="CN41" s="18"/>
-      <c r="CO41" s="18"/>
-      <c r="CP41" s="18"/>
-      <c r="CQ41" s="18"/>
-      <c r="CR41" s="18"/>
-      <c r="CS41" s="18"/>
-      <c r="CT41" s="18"/>
-      <c r="CU41" s="18"/>
-      <c r="CV41" s="18"/>
-      <c r="CW41" s="18"/>
-      <c r="CX41" s="18"/>
-      <c r="CY41" s="18"/>
-      <c r="CZ41" s="18"/>
-      <c r="DA41" s="18"/>
-      <c r="DB41" s="18"/>
-      <c r="DC41" s="18"/>
-      <c r="DD41" s="18"/>
-      <c r="DE41" s="18"/>
-      <c r="DF41" s="18"/>
-      <c r="DG41" s="18"/>
-      <c r="DH41" s="18"/>
-      <c r="DI41" s="18"/>
-      <c r="DJ41" s="18"/>
-      <c r="DK41" s="18"/>
-      <c r="DL41" s="18"/>
-      <c r="DM41" s="18"/>
-      <c r="DN41" s="18"/>
-      <c r="DO41" s="18"/>
-      <c r="DP41" s="18"/>
-      <c r="DQ41" s="18"/>
-      <c r="DR41" s="18"/>
-      <c r="DS41" s="18"/>
-      <c r="DT41" s="18"/>
-      <c r="DU41" s="18"/>
-      <c r="DV41" s="18"/>
-      <c r="DW41" s="18"/>
-      <c r="DX41" s="18"/>
-      <c r="DY41" s="18"/>
-      <c r="DZ41" s="18"/>
-      <c r="EA41" s="18"/>
-      <c r="EB41" s="18"/>
-      <c r="EC41" s="18"/>
-      <c r="ED41" s="18"/>
-      <c r="EE41" s="18"/>
-      <c r="EF41" s="18"/>
-      <c r="EG41" s="18"/>
-      <c r="EH41" s="18"/>
-      <c r="EI41" s="18"/>
-      <c r="EJ41" s="18"/>
-      <c r="EK41" s="18"/>
-      <c r="EL41" s="18"/>
-      <c r="EM41" s="18"/>
-      <c r="EN41" s="18"/>
-      <c r="EO41" s="18"/>
-      <c r="EP41" s="18"/>
-      <c r="EQ41" s="18"/>
-      <c r="ER41" s="18"/>
-      <c r="ES41" s="18"/>
-      <c r="ET41" s="18"/>
-      <c r="EU41" s="18"/>
-      <c r="EV41" s="18"/>
-      <c r="EW41" s="18"/>
-      <c r="EX41" s="18"/>
-      <c r="EY41" s="18"/>
-      <c r="EZ41" s="18"/>
-      <c r="FA41" s="18"/>
-      <c r="FB41" s="18"/>
-      <c r="FC41" s="18"/>
-      <c r="FD41" s="18"/>
-      <c r="FE41" s="18"/>
-      <c r="FF41" s="18"/>
-      <c r="FG41" s="18"/>
-      <c r="FH41" s="18"/>
-      <c r="FI41" s="18"/>
-      <c r="FJ41" s="18"/>
-      <c r="FK41" s="18"/>
-      <c r="FL41" s="18"/>
-      <c r="FM41" s="18"/>
-      <c r="FN41" s="18"/>
-      <c r="FO41" s="18"/>
-      <c r="FP41" s="18"/>
-      <c r="FQ41" s="18"/>
-      <c r="FR41" s="18"/>
-      <c r="FS41" s="18"/>
-      <c r="FT41" s="18"/>
-      <c r="FU41" s="18"/>
-      <c r="FV41" s="18"/>
-      <c r="FW41" s="18"/>
-      <c r="FX41" s="18"/>
-      <c r="FY41" s="18"/>
-      <c r="FZ41" s="18"/>
-      <c r="GA41" s="18"/>
-      <c r="GB41" s="18"/>
-      <c r="GC41" s="18"/>
-      <c r="GD41" s="18"/>
-      <c r="GE41" s="18"/>
-      <c r="GF41" s="18"/>
-      <c r="GG41" s="18"/>
-      <c r="GH41" s="18"/>
-      <c r="GI41" s="18"/>
-      <c r="GJ41" s="18"/>
-      <c r="GK41" s="18"/>
-      <c r="GL41" s="18"/>
-      <c r="GM41" s="18"/>
-      <c r="GN41" s="18"/>
-      <c r="GO41" s="18"/>
-      <c r="GP41" s="18"/>
-      <c r="GQ41" s="18"/>
-      <c r="GR41" s="18"/>
-      <c r="GS41" s="18"/>
-      <c r="GT41" s="18"/>
-      <c r="GU41" s="18"/>
-      <c r="GV41" s="18"/>
-      <c r="GW41" s="18"/>
-      <c r="GX41" s="18"/>
-      <c r="GY41" s="18"/>
-      <c r="GZ41" s="18"/>
-      <c r="HA41" s="18"/>
-      <c r="HB41" s="18"/>
-      <c r="HC41" s="18"/>
-      <c r="HD41" s="18"/>
-      <c r="HE41" s="18"/>
-      <c r="HF41" s="18"/>
-      <c r="HG41" s="18"/>
-      <c r="HH41" s="18"/>
-      <c r="HI41" s="18"/>
-      <c r="HJ41" s="18"/>
-      <c r="HK41" s="18"/>
-      <c r="HL41" s="18"/>
-      <c r="HM41" s="18"/>
-      <c r="HN41" s="18"/>
-      <c r="HO41" s="18"/>
-      <c r="HP41" s="18"/>
-      <c r="HQ41" s="18"/>
-      <c r="HR41" s="18"/>
-      <c r="HS41" s="18"/>
-      <c r="HT41" s="18"/>
-      <c r="HU41" s="18"/>
-      <c r="HV41" s="18"/>
-      <c r="HW41" s="18"/>
-      <c r="HX41" s="18"/>
-      <c r="HY41" s="18"/>
-      <c r="HZ41" s="18"/>
-      <c r="IA41" s="18"/>
-      <c r="IB41" s="18"/>
-      <c r="IC41" s="18"/>
-      <c r="ID41" s="18"/>
-      <c r="IE41" s="18"/>
-      <c r="IF41" s="18"/>
-      <c r="IG41" s="18"/>
-      <c r="IH41" s="18"/>
-      <c r="II41" s="18"/>
-      <c r="IJ41" s="18"/>
-      <c r="IK41" s="18"/>
-      <c r="IL41" s="18"/>
-      <c r="IM41" s="18"/>
-      <c r="IN41" s="18"/>
-      <c r="IO41" s="18"/>
-      <c r="IP41" s="18"/>
-      <c r="IQ41" s="18"/>
-      <c r="IR41" s="18"/>
-      <c r="IS41" s="18"/>
-      <c r="IT41" s="18"/>
-      <c r="IU41" s="18"/>
-      <c r="IV41" s="18"/>
-      <c r="IW41" s="18"/>
-      <c r="IX41" s="18"/>
+      <c r="P41" s="9"/>
+      <c r="Q41" s="9"/>
+      <c r="R41" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="S41" s="6"/>
+      <c r="U41" s="6"/>
+      <c r="V41" s="15"/>
+      <c r="W41" s="15"/>
+      <c r="X41" s="15"/>
+      <c r="Y41" s="15"/>
+      <c r="Z41" s="15"/>
+      <c r="AA41" s="15"/>
+      <c r="AB41" s="15"/>
+      <c r="AC41" s="15"/>
+      <c r="AD41" s="15"/>
+      <c r="AE41" s="15"/>
+      <c r="AF41" s="15"/>
+      <c r="AG41" s="15"/>
+      <c r="AH41" s="15"/>
+      <c r="AI41" s="15"/>
+      <c r="AJ41" s="15"/>
+      <c r="AK41" s="15"/>
+      <c r="AL41" s="15"/>
+      <c r="AM41" s="15"/>
+      <c r="AN41" s="15"/>
+      <c r="AO41" s="15"/>
+      <c r="AP41" s="15"/>
+      <c r="AQ41" s="15"/>
+      <c r="AR41" s="15"/>
+      <c r="AS41" s="15"/>
+      <c r="AT41" s="15"/>
+      <c r="AU41" s="15"/>
+      <c r="AV41" s="15"/>
+      <c r="AW41" s="15"/>
+      <c r="AX41" s="15"/>
+      <c r="AY41" s="15"/>
+      <c r="AZ41" s="15"/>
+      <c r="BA41" s="15"/>
+      <c r="BB41" s="15"/>
+      <c r="BC41" s="15"/>
+      <c r="BD41" s="15"/>
+      <c r="BE41" s="15"/>
+      <c r="BF41" s="15"/>
+      <c r="BG41" s="15"/>
+      <c r="BH41" s="15"/>
+      <c r="BI41" s="15"/>
+      <c r="BJ41" s="15"/>
+      <c r="BK41" s="15"/>
+      <c r="BL41" s="15"/>
+      <c r="BM41" s="15"/>
+      <c r="BN41" s="15"/>
+      <c r="BO41" s="15"/>
+      <c r="BP41" s="15"/>
+      <c r="BQ41" s="15"/>
+      <c r="BR41" s="15"/>
+      <c r="BS41" s="15"/>
+      <c r="BT41" s="15"/>
+      <c r="BU41" s="15"/>
+      <c r="BV41" s="15"/>
+      <c r="BW41" s="15"/>
+      <c r="BX41" s="15"/>
+      <c r="BY41" s="15"/>
+      <c r="BZ41" s="15"/>
+      <c r="CA41" s="15"/>
+      <c r="CB41" s="15"/>
+      <c r="CC41" s="15"/>
+      <c r="CD41" s="15"/>
+      <c r="CE41" s="15"/>
+      <c r="CF41" s="15"/>
+      <c r="CG41" s="15"/>
+      <c r="CH41" s="15"/>
+      <c r="CI41" s="15"/>
+      <c r="CJ41" s="15"/>
+      <c r="CK41" s="15"/>
+      <c r="CL41" s="15"/>
+      <c r="CM41" s="15"/>
+      <c r="CN41" s="15"/>
+      <c r="CO41" s="15"/>
+      <c r="CP41" s="15"/>
+      <c r="CQ41" s="15"/>
+      <c r="CR41" s="15"/>
+      <c r="CS41" s="15"/>
+      <c r="CT41" s="15"/>
+      <c r="CU41" s="15"/>
+      <c r="CV41" s="15"/>
+      <c r="CW41" s="15"/>
+      <c r="CX41" s="15"/>
+      <c r="CY41" s="15"/>
+      <c r="CZ41" s="15"/>
+      <c r="DA41" s="15"/>
+      <c r="DB41" s="15"/>
+      <c r="DC41" s="15"/>
+      <c r="DD41" s="15"/>
+      <c r="DE41" s="15"/>
+      <c r="DF41" s="15"/>
+      <c r="DG41" s="15"/>
+      <c r="DH41" s="15"/>
+      <c r="DI41" s="15"/>
+      <c r="DJ41" s="15"/>
+      <c r="DK41" s="15"/>
+      <c r="DL41" s="15"/>
+      <c r="DM41" s="15"/>
+      <c r="DN41" s="15"/>
+      <c r="DO41" s="15"/>
+      <c r="DP41" s="15"/>
+      <c r="DQ41" s="15"/>
+      <c r="DR41" s="15"/>
+      <c r="DS41" s="15"/>
+      <c r="DT41" s="15"/>
+      <c r="DU41" s="15"/>
+      <c r="DV41" s="15"/>
+      <c r="DW41" s="15"/>
+      <c r="DX41" s="15"/>
+      <c r="DY41" s="15"/>
+      <c r="DZ41" s="15"/>
+      <c r="EA41" s="15"/>
+      <c r="EB41" s="15"/>
+      <c r="EC41" s="15"/>
+      <c r="ED41" s="15"/>
+      <c r="EE41" s="15"/>
+      <c r="EF41" s="15"/>
+      <c r="EG41" s="15"/>
+      <c r="EH41" s="15"/>
+      <c r="EI41" s="15"/>
+      <c r="EJ41" s="15"/>
+      <c r="EK41" s="15"/>
+      <c r="EL41" s="15"/>
+      <c r="EM41" s="15"/>
+      <c r="EN41" s="15"/>
+      <c r="EO41" s="15"/>
+      <c r="EP41" s="15"/>
+      <c r="EQ41" s="15"/>
+      <c r="ER41" s="15"/>
+      <c r="ES41" s="15"/>
+      <c r="ET41" s="15"/>
+      <c r="EU41" s="15"/>
+      <c r="EV41" s="15"/>
+      <c r="EW41" s="15"/>
+      <c r="EX41" s="15"/>
+      <c r="EY41" s="15"/>
+      <c r="EZ41" s="15"/>
+      <c r="FA41" s="15"/>
+      <c r="FB41" s="15"/>
+      <c r="FC41" s="15"/>
+      <c r="FD41" s="15"/>
+      <c r="FE41" s="15"/>
+      <c r="FF41" s="15"/>
+      <c r="FG41" s="15"/>
+      <c r="FH41" s="15"/>
+      <c r="FI41" s="15"/>
+      <c r="FJ41" s="15"/>
+      <c r="FK41" s="15"/>
+      <c r="FL41" s="15"/>
+      <c r="FM41" s="15"/>
+      <c r="FN41" s="15"/>
+      <c r="FO41" s="15"/>
+      <c r="FP41" s="15"/>
+      <c r="FQ41" s="15"/>
+      <c r="FR41" s="15"/>
+      <c r="FS41" s="15"/>
+      <c r="FT41" s="15"/>
+      <c r="FU41" s="15"/>
+      <c r="FV41" s="15"/>
+      <c r="FW41" s="15"/>
+      <c r="FX41" s="15"/>
+      <c r="FY41" s="15"/>
+      <c r="FZ41" s="15"/>
+      <c r="GA41" s="15"/>
+      <c r="GB41" s="15"/>
+      <c r="GC41" s="15"/>
+      <c r="GD41" s="15"/>
+      <c r="GE41" s="15"/>
+      <c r="GF41" s="15"/>
+      <c r="GG41" s="15"/>
+      <c r="GH41" s="15"/>
+      <c r="GI41" s="15"/>
+      <c r="GJ41" s="15"/>
+      <c r="GK41" s="15"/>
+      <c r="GL41" s="15"/>
+      <c r="GM41" s="15"/>
+      <c r="GN41" s="15"/>
+      <c r="GO41" s="15"/>
+      <c r="GP41" s="15"/>
+      <c r="GQ41" s="15"/>
+      <c r="GR41" s="15"/>
+      <c r="GS41" s="15"/>
+      <c r="GT41" s="15"/>
+      <c r="GU41" s="15"/>
+      <c r="GV41" s="15"/>
+      <c r="GW41" s="15"/>
+      <c r="GX41" s="15"/>
+      <c r="GY41" s="15"/>
+      <c r="GZ41" s="15"/>
+      <c r="HA41" s="15"/>
+      <c r="HB41" s="15"/>
+      <c r="HC41" s="15"/>
+      <c r="HD41" s="15"/>
+      <c r="HE41" s="15"/>
+      <c r="HF41" s="15"/>
+      <c r="HG41" s="15"/>
+      <c r="HH41" s="15"/>
+      <c r="HI41" s="15"/>
+      <c r="HJ41" s="15"/>
+      <c r="HK41" s="15"/>
+      <c r="HL41" s="15"/>
+      <c r="HM41" s="15"/>
+      <c r="HN41" s="15"/>
+      <c r="HO41" s="15"/>
+      <c r="HP41" s="15"/>
+      <c r="HQ41" s="15"/>
+      <c r="HR41" s="15"/>
+      <c r="HS41" s="15"/>
+      <c r="HT41" s="15"/>
+      <c r="HU41" s="15"/>
+      <c r="HV41" s="15"/>
+      <c r="HW41" s="15"/>
+      <c r="HX41" s="15"/>
+      <c r="HY41" s="15"/>
+      <c r="HZ41" s="15"/>
+      <c r="IA41" s="15"/>
+      <c r="IB41" s="15"/>
+      <c r="IC41" s="15"/>
+      <c r="ID41" s="15"/>
+      <c r="IE41" s="15"/>
+      <c r="IF41" s="15"/>
+      <c r="IG41" s="15"/>
+      <c r="IH41" s="15"/>
+      <c r="II41" s="15"/>
+      <c r="IJ41" s="15"/>
+      <c r="IK41" s="15"/>
+      <c r="IL41" s="15"/>
+      <c r="IM41" s="15"/>
+      <c r="IN41" s="15"/>
+      <c r="IO41" s="15"/>
+      <c r="IP41" s="15"/>
+      <c r="IQ41" s="15"/>
+      <c r="IR41" s="15"/>
+      <c r="IS41" s="15"/>
+      <c r="IT41" s="15"/>
+      <c r="IU41" s="15"/>
+      <c r="IV41" s="15"/>
+      <c r="IW41" s="15"/>
+      <c r="IX41" s="15"/>
+      <c r="IY41" s="0"/>
+      <c r="IZ41" s="0"/>
+      <c r="JA41" s="0"/>
+      <c r="JB41" s="0"/>
+      <c r="JC41" s="0"/>
+      <c r="JD41" s="0"/>
+      <c r="JE41" s="0"/>
+      <c r="JF41" s="0"/>
+      <c r="JG41" s="0"/>
+      <c r="JH41" s="0"/>
+      <c r="JI41" s="0"/>
+      <c r="JJ41" s="0"/>
+      <c r="JK41" s="0"/>
+      <c r="JL41" s="0"/>
+      <c r="JM41" s="0"/>
+      <c r="JN41" s="0"/>
+      <c r="JO41" s="0"/>
+      <c r="JP41" s="0"/>
+      <c r="JQ41" s="0"/>
+      <c r="JR41" s="0"/>
+      <c r="JS41" s="0"/>
+      <c r="JT41" s="0"/>
+      <c r="JU41" s="0"/>
+      <c r="JV41" s="0"/>
+      <c r="JW41" s="0"/>
+      <c r="JX41" s="0"/>
+      <c r="JY41" s="0"/>
+      <c r="JZ41" s="0"/>
+      <c r="KA41" s="0"/>
+      <c r="KB41" s="0"/>
+      <c r="KC41" s="0"/>
+      <c r="KD41" s="0"/>
+      <c r="KE41" s="0"/>
+      <c r="KF41" s="0"/>
+      <c r="KG41" s="0"/>
+      <c r="KH41" s="0"/>
+      <c r="KI41" s="0"/>
+      <c r="KJ41" s="0"/>
+      <c r="KK41" s="0"/>
+      <c r="KL41" s="0"/>
+      <c r="KM41" s="0"/>
+      <c r="KN41" s="0"/>
+      <c r="KO41" s="0"/>
+      <c r="KP41" s="0"/>
+      <c r="KQ41" s="0"/>
+      <c r="KR41" s="0"/>
+      <c r="KS41" s="0"/>
+      <c r="KT41" s="0"/>
+      <c r="KU41" s="0"/>
+      <c r="KV41" s="0"/>
+      <c r="KW41" s="0"/>
+      <c r="KX41" s="0"/>
+      <c r="KY41" s="0"/>
+      <c r="KZ41" s="0"/>
+      <c r="LA41" s="0"/>
+      <c r="LB41" s="0"/>
+      <c r="LC41" s="0"/>
+      <c r="LD41" s="0"/>
+      <c r="LE41" s="0"/>
+      <c r="LF41" s="0"/>
+      <c r="LG41" s="0"/>
+      <c r="LH41" s="0"/>
+      <c r="LI41" s="0"/>
+      <c r="LJ41" s="0"/>
+      <c r="LK41" s="0"/>
+      <c r="LL41" s="0"/>
+      <c r="LM41" s="0"/>
+      <c r="LN41" s="0"/>
+      <c r="LO41" s="0"/>
+      <c r="LP41" s="0"/>
+      <c r="LQ41" s="0"/>
+      <c r="LR41" s="0"/>
+      <c r="LS41" s="0"/>
+      <c r="LT41" s="0"/>
+      <c r="LU41" s="0"/>
+      <c r="LV41" s="0"/>
+      <c r="LW41" s="0"/>
+      <c r="LX41" s="0"/>
+      <c r="LY41" s="0"/>
+      <c r="LZ41" s="0"/>
+      <c r="MA41" s="0"/>
+      <c r="MB41" s="0"/>
+      <c r="MC41" s="0"/>
+      <c r="MD41" s="0"/>
+      <c r="ME41" s="0"/>
+      <c r="MF41" s="0"/>
+      <c r="MG41" s="0"/>
+      <c r="MH41" s="0"/>
+      <c r="MI41" s="0"/>
+      <c r="MJ41" s="0"/>
+      <c r="MK41" s="0"/>
+      <c r="ML41" s="0"/>
+      <c r="MM41" s="0"/>
+      <c r="MN41" s="0"/>
+      <c r="MO41" s="0"/>
+      <c r="MP41" s="0"/>
+      <c r="MQ41" s="0"/>
+      <c r="MR41" s="0"/>
+      <c r="MS41" s="0"/>
+      <c r="MT41" s="0"/>
+      <c r="MU41" s="0"/>
+      <c r="MV41" s="0"/>
+      <c r="MW41" s="0"/>
+      <c r="MX41" s="0"/>
+      <c r="MY41" s="0"/>
+      <c r="MZ41" s="0"/>
+      <c r="NA41" s="0"/>
+      <c r="NB41" s="0"/>
+      <c r="NC41" s="0"/>
+      <c r="ND41" s="0"/>
+      <c r="NE41" s="0"/>
+      <c r="NF41" s="0"/>
+      <c r="NG41" s="0"/>
+      <c r="NH41" s="0"/>
+      <c r="NI41" s="0"/>
+      <c r="NJ41" s="0"/>
+      <c r="NK41" s="0"/>
+      <c r="NL41" s="0"/>
+      <c r="NM41" s="0"/>
+      <c r="NN41" s="0"/>
+      <c r="NO41" s="0"/>
+      <c r="NP41" s="0"/>
+      <c r="NQ41" s="0"/>
+      <c r="NR41" s="0"/>
+      <c r="NS41" s="0"/>
+      <c r="NT41" s="0"/>
+      <c r="NU41" s="0"/>
+      <c r="NV41" s="0"/>
+      <c r="NW41" s="0"/>
+      <c r="NX41" s="0"/>
+      <c r="NY41" s="0"/>
+      <c r="NZ41" s="0"/>
+      <c r="OA41" s="0"/>
+      <c r="OB41" s="0"/>
+      <c r="OC41" s="0"/>
+      <c r="OD41" s="0"/>
+      <c r="OE41" s="0"/>
+      <c r="OF41" s="0"/>
+      <c r="OG41" s="0"/>
+      <c r="OH41" s="0"/>
+      <c r="OI41" s="0"/>
+      <c r="OJ41" s="0"/>
+      <c r="OK41" s="0"/>
+      <c r="OL41" s="0"/>
+      <c r="OM41" s="0"/>
+      <c r="ON41" s="0"/>
+      <c r="OO41" s="0"/>
+      <c r="OP41" s="0"/>
+      <c r="OQ41" s="0"/>
+      <c r="OR41" s="0"/>
+      <c r="OS41" s="0"/>
+      <c r="OT41" s="0"/>
+      <c r="OU41" s="0"/>
+      <c r="OV41" s="0"/>
+      <c r="OW41" s="0"/>
+      <c r="OX41" s="0"/>
+      <c r="OY41" s="0"/>
+      <c r="OZ41" s="0"/>
+      <c r="PA41" s="0"/>
+      <c r="PB41" s="0"/>
+      <c r="PC41" s="0"/>
+      <c r="PD41" s="0"/>
+      <c r="PE41" s="0"/>
+      <c r="PF41" s="0"/>
+      <c r="PG41" s="0"/>
+      <c r="PH41" s="0"/>
+      <c r="PI41" s="0"/>
+      <c r="PJ41" s="0"/>
+      <c r="PK41" s="0"/>
+      <c r="PL41" s="0"/>
+      <c r="PM41" s="0"/>
+      <c r="PN41" s="0"/>
+      <c r="PO41" s="0"/>
+      <c r="PP41" s="0"/>
+      <c r="PQ41" s="0"/>
+      <c r="PR41" s="0"/>
+      <c r="PS41" s="0"/>
+      <c r="PT41" s="0"/>
+      <c r="PU41" s="0"/>
+      <c r="PV41" s="0"/>
+      <c r="PW41" s="0"/>
+      <c r="PX41" s="0"/>
+      <c r="PY41" s="0"/>
+      <c r="PZ41" s="0"/>
+      <c r="QA41" s="0"/>
+      <c r="QB41" s="0"/>
+      <c r="QC41" s="0"/>
+      <c r="QD41" s="0"/>
+      <c r="QE41" s="0"/>
+      <c r="QF41" s="0"/>
+      <c r="QG41" s="0"/>
+      <c r="QH41" s="0"/>
+      <c r="QI41" s="0"/>
+      <c r="QJ41" s="0"/>
+      <c r="QK41" s="0"/>
+      <c r="QL41" s="0"/>
+      <c r="QM41" s="0"/>
+      <c r="QN41" s="0"/>
+      <c r="QO41" s="0"/>
+      <c r="QP41" s="0"/>
+      <c r="QQ41" s="0"/>
+      <c r="QR41" s="0"/>
+      <c r="QS41" s="0"/>
+      <c r="QT41" s="0"/>
+      <c r="QU41" s="0"/>
+      <c r="QV41" s="0"/>
+      <c r="QW41" s="0"/>
+      <c r="QX41" s="0"/>
+      <c r="QY41" s="0"/>
+      <c r="QZ41" s="0"/>
+      <c r="RA41" s="0"/>
+      <c r="RB41" s="0"/>
+      <c r="RC41" s="0"/>
+      <c r="RD41" s="0"/>
+      <c r="RE41" s="0"/>
+      <c r="RF41" s="0"/>
+      <c r="RG41" s="0"/>
+      <c r="RH41" s="0"/>
+      <c r="RI41" s="0"/>
+      <c r="RJ41" s="0"/>
+      <c r="RK41" s="0"/>
+      <c r="RL41" s="0"/>
+      <c r="RM41" s="0"/>
+      <c r="RN41" s="0"/>
+      <c r="RO41" s="0"/>
+      <c r="RP41" s="0"/>
+      <c r="RQ41" s="0"/>
+      <c r="RR41" s="0"/>
+      <c r="RS41" s="0"/>
+      <c r="RT41" s="0"/>
+      <c r="RU41" s="0"/>
+      <c r="RV41" s="0"/>
+      <c r="RW41" s="0"/>
+      <c r="RX41" s="0"/>
+      <c r="RY41" s="0"/>
+      <c r="RZ41" s="0"/>
+      <c r="SA41" s="0"/>
+      <c r="SB41" s="0"/>
+      <c r="SC41" s="0"/>
+      <c r="SD41" s="0"/>
+      <c r="SE41" s="0"/>
+      <c r="SF41" s="0"/>
+      <c r="SG41" s="0"/>
+      <c r="SH41" s="0"/>
+      <c r="SI41" s="0"/>
+      <c r="SJ41" s="0"/>
+      <c r="SK41" s="0"/>
+      <c r="SL41" s="0"/>
+      <c r="SM41" s="0"/>
+      <c r="SN41" s="0"/>
+      <c r="SO41" s="0"/>
+      <c r="SP41" s="0"/>
+      <c r="SQ41" s="0"/>
+      <c r="SR41" s="0"/>
+      <c r="SS41" s="0"/>
+      <c r="ST41" s="0"/>
+      <c r="SU41" s="0"/>
+      <c r="SV41" s="0"/>
+      <c r="SW41" s="0"/>
+      <c r="SX41" s="0"/>
+      <c r="SY41" s="0"/>
+      <c r="SZ41" s="0"/>
+      <c r="TA41" s="0"/>
+      <c r="TB41" s="0"/>
+      <c r="TC41" s="0"/>
+      <c r="TD41" s="0"/>
+      <c r="TE41" s="0"/>
+      <c r="TF41" s="0"/>
+      <c r="TG41" s="0"/>
+      <c r="TH41" s="0"/>
+      <c r="TI41" s="0"/>
+      <c r="TJ41" s="0"/>
+      <c r="TK41" s="0"/>
+      <c r="TL41" s="0"/>
+      <c r="TM41" s="0"/>
+      <c r="TN41" s="0"/>
+      <c r="TO41" s="0"/>
+      <c r="TP41" s="0"/>
+      <c r="TQ41" s="0"/>
+      <c r="TR41" s="0"/>
+      <c r="TS41" s="0"/>
+      <c r="TT41" s="0"/>
+      <c r="TU41" s="0"/>
+      <c r="TV41" s="0"/>
+      <c r="TW41" s="0"/>
+      <c r="TX41" s="0"/>
+      <c r="TY41" s="0"/>
+      <c r="TZ41" s="0"/>
+      <c r="UA41" s="0"/>
+      <c r="UB41" s="0"/>
+      <c r="UC41" s="0"/>
+      <c r="UD41" s="0"/>
+      <c r="UE41" s="0"/>
+      <c r="UF41" s="0"/>
+      <c r="UG41" s="0"/>
+      <c r="UH41" s="0"/>
+      <c r="UI41" s="0"/>
+      <c r="UJ41" s="0"/>
+      <c r="UK41" s="0"/>
+      <c r="UL41" s="0"/>
+      <c r="UM41" s="0"/>
+      <c r="UN41" s="0"/>
+      <c r="UO41" s="0"/>
+      <c r="UP41" s="0"/>
+      <c r="UQ41" s="0"/>
+      <c r="UR41" s="0"/>
+      <c r="US41" s="0"/>
+      <c r="UT41" s="0"/>
+      <c r="UU41" s="0"/>
+      <c r="UV41" s="0"/>
+      <c r="UW41" s="0"/>
+      <c r="UX41" s="0"/>
+      <c r="UY41" s="0"/>
+      <c r="UZ41" s="0"/>
+      <c r="VA41" s="0"/>
+      <c r="VB41" s="0"/>
+      <c r="VC41" s="0"/>
+      <c r="VD41" s="0"/>
+      <c r="VE41" s="0"/>
+      <c r="VF41" s="0"/>
+      <c r="VG41" s="0"/>
+      <c r="VH41" s="0"/>
+      <c r="VI41" s="0"/>
+      <c r="VJ41" s="0"/>
+      <c r="VK41" s="0"/>
+      <c r="VL41" s="0"/>
+      <c r="VM41" s="0"/>
+      <c r="VN41" s="0"/>
+      <c r="VO41" s="0"/>
+      <c r="VP41" s="0"/>
+      <c r="VQ41" s="0"/>
+      <c r="VR41" s="0"/>
+      <c r="VS41" s="0"/>
+      <c r="VT41" s="0"/>
+      <c r="VU41" s="0"/>
+      <c r="VV41" s="0"/>
+      <c r="VW41" s="0"/>
+      <c r="VX41" s="0"/>
+      <c r="VY41" s="0"/>
+      <c r="VZ41" s="0"/>
+      <c r="WA41" s="0"/>
+      <c r="WB41" s="0"/>
+      <c r="WC41" s="0"/>
+      <c r="WD41" s="0"/>
+      <c r="WE41" s="0"/>
+      <c r="WF41" s="0"/>
+      <c r="WG41" s="0"/>
+      <c r="WH41" s="0"/>
+      <c r="WI41" s="0"/>
+      <c r="WJ41" s="0"/>
+      <c r="WK41" s="0"/>
+      <c r="WL41" s="0"/>
+      <c r="WM41" s="0"/>
+      <c r="WN41" s="0"/>
+      <c r="WO41" s="0"/>
+      <c r="WP41" s="0"/>
+      <c r="WQ41" s="0"/>
+      <c r="WR41" s="0"/>
+      <c r="WS41" s="0"/>
+      <c r="WT41" s="0"/>
+      <c r="WU41" s="0"/>
+      <c r="WV41" s="0"/>
+      <c r="WW41" s="0"/>
+      <c r="WX41" s="0"/>
+      <c r="WY41" s="0"/>
+      <c r="WZ41" s="0"/>
+      <c r="XA41" s="0"/>
+      <c r="XB41" s="0"/>
+      <c r="XC41" s="0"/>
+      <c r="XD41" s="0"/>
+      <c r="XE41" s="0"/>
+      <c r="XF41" s="0"/>
+      <c r="XG41" s="0"/>
+      <c r="XH41" s="0"/>
+      <c r="XI41" s="0"/>
+      <c r="XJ41" s="0"/>
+      <c r="XK41" s="0"/>
+      <c r="XL41" s="0"/>
+      <c r="XM41" s="0"/>
+      <c r="XN41" s="0"/>
+      <c r="XO41" s="0"/>
+      <c r="XP41" s="0"/>
+      <c r="XQ41" s="0"/>
+      <c r="XR41" s="0"/>
+      <c r="XS41" s="0"/>
+      <c r="XT41" s="0"/>
+      <c r="XU41" s="0"/>
+      <c r="XV41" s="0"/>
+      <c r="XW41" s="0"/>
+      <c r="XX41" s="0"/>
+      <c r="XY41" s="0"/>
+      <c r="XZ41" s="0"/>
+      <c r="YA41" s="0"/>
+      <c r="YB41" s="0"/>
+      <c r="YC41" s="0"/>
+      <c r="YD41" s="0"/>
+      <c r="YE41" s="0"/>
+      <c r="YF41" s="0"/>
+      <c r="YG41" s="0"/>
+      <c r="YH41" s="0"/>
+      <c r="YI41" s="0"/>
+      <c r="YJ41" s="0"/>
+      <c r="YK41" s="0"/>
+      <c r="YL41" s="0"/>
+      <c r="YM41" s="0"/>
+      <c r="YN41" s="0"/>
+      <c r="YO41" s="0"/>
+      <c r="YP41" s="0"/>
+      <c r="YQ41" s="0"/>
+      <c r="YR41" s="0"/>
+      <c r="YS41" s="0"/>
+      <c r="YT41" s="0"/>
+      <c r="YU41" s="0"/>
+      <c r="YV41" s="0"/>
+      <c r="YW41" s="0"/>
+      <c r="YX41" s="0"/>
+      <c r="YY41" s="0"/>
+      <c r="YZ41" s="0"/>
+      <c r="ZA41" s="0"/>
+      <c r="ZB41" s="0"/>
+      <c r="ZC41" s="0"/>
+      <c r="ZD41" s="0"/>
+      <c r="ZE41" s="0"/>
+      <c r="ZF41" s="0"/>
+      <c r="ZG41" s="0"/>
+      <c r="ZH41" s="0"/>
+      <c r="ZI41" s="0"/>
+      <c r="ZJ41" s="0"/>
+      <c r="ZK41" s="0"/>
+      <c r="ZL41" s="0"/>
+      <c r="ZM41" s="0"/>
+      <c r="ZN41" s="0"/>
+      <c r="ZO41" s="0"/>
+      <c r="ZP41" s="0"/>
+      <c r="ZQ41" s="0"/>
+      <c r="ZR41" s="0"/>
+      <c r="ZS41" s="0"/>
+      <c r="ZT41" s="0"/>
+      <c r="ZU41" s="0"/>
+      <c r="ZV41" s="0"/>
+      <c r="ZW41" s="0"/>
+      <c r="ZX41" s="0"/>
+      <c r="ZY41" s="0"/>
+      <c r="ZZ41" s="0"/>
+      <c r="AAA41" s="0"/>
+      <c r="AAB41" s="0"/>
+      <c r="AAC41" s="0"/>
+      <c r="AAD41" s="0"/>
+      <c r="AAE41" s="0"/>
+      <c r="AAF41" s="0"/>
+      <c r="AAG41" s="0"/>
+      <c r="AAH41" s="0"/>
+      <c r="AAI41" s="0"/>
+      <c r="AAJ41" s="0"/>
+      <c r="AAK41" s="0"/>
+      <c r="AAL41" s="0"/>
+      <c r="AAM41" s="0"/>
+      <c r="AAN41" s="0"/>
+      <c r="AAO41" s="0"/>
+      <c r="AAP41" s="0"/>
+      <c r="AAQ41" s="0"/>
+      <c r="AAR41" s="0"/>
+      <c r="AAS41" s="0"/>
+      <c r="AAT41" s="0"/>
+      <c r="AAU41" s="0"/>
+      <c r="AAV41" s="0"/>
+      <c r="AAW41" s="0"/>
+      <c r="AAX41" s="0"/>
+      <c r="AAY41" s="0"/>
+      <c r="AAZ41" s="0"/>
+      <c r="ABA41" s="0"/>
+      <c r="ABB41" s="0"/>
+      <c r="ABC41" s="0"/>
+      <c r="ABD41" s="0"/>
+      <c r="ABE41" s="0"/>
+      <c r="ABF41" s="0"/>
+      <c r="ABG41" s="0"/>
+      <c r="ABH41" s="0"/>
+      <c r="ABI41" s="0"/>
+      <c r="ABJ41" s="0"/>
+      <c r="ABK41" s="0"/>
+      <c r="ABL41" s="0"/>
+      <c r="ABM41" s="0"/>
+      <c r="ABN41" s="0"/>
+      <c r="ABO41" s="0"/>
+      <c r="ABP41" s="0"/>
+      <c r="ABQ41" s="0"/>
+      <c r="ABR41" s="0"/>
+      <c r="ABS41" s="0"/>
+      <c r="ABT41" s="0"/>
+      <c r="ABU41" s="0"/>
+      <c r="ABV41" s="0"/>
+      <c r="ABW41" s="0"/>
+      <c r="ABX41" s="0"/>
+      <c r="ABY41" s="0"/>
+      <c r="ABZ41" s="0"/>
+      <c r="ACA41" s="0"/>
+      <c r="ACB41" s="0"/>
+      <c r="ACC41" s="0"/>
+      <c r="ACD41" s="0"/>
+      <c r="ACE41" s="0"/>
+      <c r="ACF41" s="0"/>
+      <c r="ACG41" s="0"/>
+      <c r="ACH41" s="0"/>
+      <c r="ACI41" s="0"/>
+      <c r="ACJ41" s="0"/>
+      <c r="ACK41" s="0"/>
+      <c r="ACL41" s="0"/>
+      <c r="ACM41" s="0"/>
+      <c r="ACN41" s="0"/>
+      <c r="ACO41" s="0"/>
+      <c r="ACP41" s="0"/>
+      <c r="ACQ41" s="0"/>
+      <c r="ACR41" s="0"/>
+      <c r="ACS41" s="0"/>
+      <c r="ACT41" s="0"/>
+      <c r="ACU41" s="0"/>
+      <c r="ACV41" s="0"/>
+      <c r="ACW41" s="0"/>
+      <c r="ACX41" s="0"/>
+      <c r="ACY41" s="0"/>
+      <c r="ACZ41" s="0"/>
+      <c r="ADA41" s="0"/>
+      <c r="ADB41" s="0"/>
+      <c r="ADC41" s="0"/>
+      <c r="ADD41" s="0"/>
+      <c r="ADE41" s="0"/>
+      <c r="ADF41" s="0"/>
+      <c r="ADG41" s="0"/>
+      <c r="ADH41" s="0"/>
+      <c r="ADI41" s="0"/>
+      <c r="ADJ41" s="0"/>
+      <c r="ADK41" s="0"/>
+      <c r="ADL41" s="0"/>
+      <c r="ADM41" s="0"/>
+      <c r="ADN41" s="0"/>
+      <c r="ADO41" s="0"/>
+      <c r="ADP41" s="0"/>
+      <c r="ADQ41" s="0"/>
+      <c r="ADR41" s="0"/>
+      <c r="ADS41" s="0"/>
+      <c r="ADT41" s="0"/>
+      <c r="ADU41" s="0"/>
+      <c r="ADV41" s="0"/>
+      <c r="ADW41" s="0"/>
+      <c r="ADX41" s="0"/>
+      <c r="ADY41" s="0"/>
+      <c r="ADZ41" s="0"/>
+      <c r="AEA41" s="0"/>
+      <c r="AEB41" s="0"/>
+      <c r="AEC41" s="0"/>
+      <c r="AED41" s="0"/>
+      <c r="AEE41" s="0"/>
+      <c r="AEF41" s="0"/>
+      <c r="AEG41" s="0"/>
+      <c r="AEH41" s="0"/>
+      <c r="AEI41" s="0"/>
+      <c r="AEJ41" s="0"/>
+      <c r="AEK41" s="0"/>
+      <c r="AEL41" s="0"/>
+      <c r="AEM41" s="0"/>
+      <c r="AEN41" s="0"/>
+      <c r="AEO41" s="0"/>
+      <c r="AEP41" s="0"/>
+      <c r="AEQ41" s="0"/>
+      <c r="AER41" s="0"/>
+      <c r="AES41" s="0"/>
+      <c r="AET41" s="0"/>
+      <c r="AEU41" s="0"/>
+      <c r="AEV41" s="0"/>
+      <c r="AEW41" s="0"/>
+      <c r="AEX41" s="0"/>
+      <c r="AEY41" s="0"/>
+      <c r="AEZ41" s="0"/>
+      <c r="AFA41" s="0"/>
+      <c r="AFB41" s="0"/>
+      <c r="AFC41" s="0"/>
+      <c r="AFD41" s="0"/>
+      <c r="AFE41" s="0"/>
+      <c r="AFF41" s="0"/>
+      <c r="AFG41" s="0"/>
+      <c r="AFH41" s="0"/>
+      <c r="AFI41" s="0"/>
+      <c r="AFJ41" s="0"/>
+      <c r="AFK41" s="0"/>
+      <c r="AFL41" s="0"/>
+      <c r="AFM41" s="0"/>
+      <c r="AFN41" s="0"/>
+      <c r="AFO41" s="0"/>
+      <c r="AFP41" s="0"/>
+      <c r="AFQ41" s="0"/>
+      <c r="AFR41" s="0"/>
+      <c r="AFS41" s="0"/>
+      <c r="AFT41" s="0"/>
+      <c r="AFU41" s="0"/>
+      <c r="AFV41" s="0"/>
+      <c r="AFW41" s="0"/>
+      <c r="AFX41" s="0"/>
+      <c r="AFY41" s="0"/>
+      <c r="AFZ41" s="0"/>
+      <c r="AGA41" s="0"/>
+      <c r="AGB41" s="0"/>
+      <c r="AGC41" s="0"/>
+      <c r="AGD41" s="0"/>
+      <c r="AGE41" s="0"/>
+      <c r="AGF41" s="0"/>
+      <c r="AGG41" s="0"/>
+      <c r="AGH41" s="0"/>
+      <c r="AGI41" s="0"/>
+      <c r="AGJ41" s="0"/>
+      <c r="AGK41" s="0"/>
+      <c r="AGL41" s="0"/>
+      <c r="AGM41" s="0"/>
+      <c r="AGN41" s="0"/>
+      <c r="AGO41" s="0"/>
+      <c r="AGP41" s="0"/>
+      <c r="AGQ41" s="0"/>
+      <c r="AGR41" s="0"/>
+      <c r="AGS41" s="0"/>
+      <c r="AGT41" s="0"/>
+      <c r="AGU41" s="0"/>
+      <c r="AGV41" s="0"/>
+      <c r="AGW41" s="0"/>
+      <c r="AGX41" s="0"/>
+      <c r="AGY41" s="0"/>
+      <c r="AGZ41" s="0"/>
+      <c r="AHA41" s="0"/>
+      <c r="AHB41" s="0"/>
+      <c r="AHC41" s="0"/>
+      <c r="AHD41" s="0"/>
+      <c r="AHE41" s="0"/>
+      <c r="AHF41" s="0"/>
+      <c r="AHG41" s="0"/>
+      <c r="AHH41" s="0"/>
+      <c r="AHI41" s="0"/>
+      <c r="AHJ41" s="0"/>
+      <c r="AHK41" s="0"/>
+      <c r="AHL41" s="0"/>
+      <c r="AHM41" s="0"/>
+      <c r="AHN41" s="0"/>
+      <c r="AHO41" s="0"/>
+      <c r="AHP41" s="0"/>
+      <c r="AHQ41" s="0"/>
+      <c r="AHR41" s="0"/>
+      <c r="AHS41" s="0"/>
+      <c r="AHT41" s="0"/>
+      <c r="AHU41" s="0"/>
+      <c r="AHV41" s="0"/>
+      <c r="AHW41" s="0"/>
+      <c r="AHX41" s="0"/>
+      <c r="AHY41" s="0"/>
+      <c r="AHZ41" s="0"/>
+      <c r="AIA41" s="0"/>
+      <c r="AIB41" s="0"/>
+      <c r="AIC41" s="0"/>
+      <c r="AID41" s="0"/>
+      <c r="AIE41" s="0"/>
+      <c r="AIF41" s="0"/>
+      <c r="AIG41" s="0"/>
+      <c r="AIH41" s="0"/>
+      <c r="AII41" s="0"/>
+      <c r="AIJ41" s="0"/>
+      <c r="AIK41" s="0"/>
+      <c r="AIL41" s="0"/>
+      <c r="AIM41" s="0"/>
+      <c r="AIN41" s="0"/>
+      <c r="AIO41" s="0"/>
+      <c r="AIP41" s="0"/>
+      <c r="AIQ41" s="0"/>
+      <c r="AIR41" s="0"/>
+      <c r="AIS41" s="0"/>
+      <c r="AIT41" s="0"/>
+      <c r="AIU41" s="0"/>
+      <c r="AIV41" s="0"/>
+      <c r="AIW41" s="0"/>
+      <c r="AIX41" s="0"/>
+      <c r="AIY41" s="0"/>
+      <c r="AIZ41" s="0"/>
+      <c r="AJA41" s="0"/>
+      <c r="AJB41" s="0"/>
+      <c r="AJC41" s="0"/>
+      <c r="AJD41" s="0"/>
+      <c r="AJE41" s="0"/>
+      <c r="AJF41" s="0"/>
+      <c r="AJG41" s="0"/>
+      <c r="AJH41" s="0"/>
+      <c r="AJI41" s="0"/>
+      <c r="AJJ41" s="0"/>
+      <c r="AJK41" s="0"/>
+      <c r="AJL41" s="0"/>
+      <c r="AJM41" s="0"/>
+      <c r="AJN41" s="0"/>
+      <c r="AJO41" s="0"/>
+      <c r="AJP41" s="0"/>
+      <c r="AJQ41" s="0"/>
+      <c r="AJR41" s="0"/>
+      <c r="AJS41" s="0"/>
+      <c r="AJT41" s="0"/>
+      <c r="AJU41" s="0"/>
+      <c r="AJV41" s="0"/>
+      <c r="AJW41" s="0"/>
+      <c r="AJX41" s="0"/>
+      <c r="AJY41" s="0"/>
+      <c r="AJZ41" s="0"/>
+      <c r="AKA41" s="0"/>
+      <c r="AKB41" s="0"/>
+      <c r="AKC41" s="0"/>
+      <c r="AKD41" s="0"/>
+      <c r="AKE41" s="0"/>
+      <c r="AKF41" s="0"/>
+      <c r="AKG41" s="0"/>
+      <c r="AKH41" s="0"/>
+      <c r="AKI41" s="0"/>
+      <c r="AKJ41" s="0"/>
+      <c r="AKK41" s="0"/>
+      <c r="AKL41" s="0"/>
+      <c r="AKM41" s="0"/>
+      <c r="AKN41" s="0"/>
+      <c r="AKO41" s="0"/>
+      <c r="AKP41" s="0"/>
+      <c r="AKQ41" s="0"/>
+      <c r="AKR41" s="0"/>
+      <c r="AKS41" s="0"/>
+      <c r="AKT41" s="0"/>
+      <c r="AKU41" s="0"/>
+      <c r="AKV41" s="0"/>
+      <c r="AKW41" s="0"/>
+      <c r="AKX41" s="0"/>
+      <c r="AKY41" s="0"/>
+      <c r="AKZ41" s="0"/>
+      <c r="ALA41" s="0"/>
+      <c r="ALB41" s="0"/>
+      <c r="ALC41" s="0"/>
+      <c r="ALD41" s="0"/>
+      <c r="ALE41" s="0"/>
+      <c r="ALF41" s="0"/>
+      <c r="ALG41" s="0"/>
+      <c r="ALH41" s="0"/>
+      <c r="ALI41" s="0"/>
+      <c r="ALJ41" s="0"/>
+      <c r="ALK41" s="0"/>
+      <c r="ALL41" s="0"/>
+      <c r="ALM41" s="0"/>
+      <c r="ALN41" s="0"/>
+      <c r="ALO41" s="0"/>
+      <c r="ALP41" s="0"/>
+      <c r="ALQ41" s="0"/>
+      <c r="ALR41" s="0"/>
+      <c r="ALS41" s="0"/>
+      <c r="ALT41" s="0"/>
+      <c r="ALU41" s="0"/>
+      <c r="ALV41" s="0"/>
+      <c r="ALW41" s="0"/>
+      <c r="ALX41" s="0"/>
+      <c r="ALY41" s="0"/>
+      <c r="ALZ41" s="0"/>
+      <c r="AMA41" s="0"/>
+      <c r="AMB41" s="0"/>
+      <c r="AMC41" s="0"/>
+      <c r="AMD41" s="0"/>
+      <c r="AME41" s="0"/>
+      <c r="AMF41" s="0"/>
+      <c r="AMG41" s="0"/>
+      <c r="AMH41" s="0"/>
+      <c r="AMI41" s="0"/>
+      <c r="AMJ41" s="0"/>
     </row>
     <row r="42" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="6"/>
       <c r="B42" s="6"/>
-      <c r="C42" s="7"/>
-      <c r="D42" s="8"/>
+      <c r="C42" s="6"/>
       <c r="E42" s="6"/>
       <c r="F42" s="6"/>
       <c r="G42" s="6"/>
       <c r="H42" s="6"/>
       <c r="I42" s="6"/>
-      <c r="J42" s="8"/>
-      <c r="K42" s="8"/>
       <c r="L42" s="6"/>
-      <c r="M42" s="9" t="n">
+      <c r="M42" s="7" t="n">
         <f aca="false">SUM(M2:M39)</f>
-        <v>63775474.4965</v>
-      </c>
-      <c r="N42" s="10" t="n">
+        <v>68660181.159</v>
+      </c>
+      <c r="N42" s="8" t="n">
         <f aca="false">M42/O42</f>
-        <v>5121.70942126519</v>
-      </c>
-      <c r="O42" s="9" t="n">
+        <v>5513.99263563495</v>
+      </c>
+      <c r="O42" s="7" t="n">
         <f aca="false">SUM(O2:O39)</f>
         <v>12451.99</v>
       </c>
-      <c r="P42" s="11"/>
-      <c r="Q42" s="11"/>
+      <c r="P42" s="9"/>
+      <c r="Q42" s="9"/>
       <c r="R42" s="6"/>
       <c r="S42" s="6"/>
       <c r="T42" s="6"/>
@@ -3907,9 +5409,9 @@
   <autoFilter ref="A1:T42"/>
   <hyperlinks>
     <hyperlink ref="R5" r:id="rId1" display="https://www.tripadvisor.cz/Restaurant_Review-g274707-d2032377-Reviews-Cafe_Trinity-Prague_Bohemia.html"/>
-    <hyperlink ref="T11" r:id="rId2" display="http://zastupitelstvo.praha.eu/ina2014/cessmldetail.aspx?id=225683"/>
-    <hyperlink ref="T18" r:id="rId3" display="http://zastupitelstvo.praha.eu/ina2014/cessmldetail.aspx?id=222501"/>
-    <hyperlink ref="T31" r:id="rId4" display="http://zastupitelstvo.praha.eu/ina2014/cessmldetail.aspx?id=172168"/>
+    <hyperlink ref="T11" r:id="rId2" display="http://zastupitelstvo.praha.eu/ina2014/cessmldetail.aspx?id=225683 (je potřeba si vyžádat)"/>
+    <hyperlink ref="T18" r:id="rId3" display="http://zastupitelstvo.praha.eu/ina2014/cessmldetail.aspx?id=222501 (původní smlouva jen na 93 m2, rozšiřující dodatek nelze zobrazit! )"/>
+    <hyperlink ref="T31" r:id="rId4" display="http://zastupitelstvo.praha.eu/ina2014/cessmldetail.aspx?id=172168 (je potřeba si vyžádat)"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
